--- a/01-data/column_rename_mapping.xlsx
+++ b/01-data/column_rename_mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danramirez/mbs-structural-equation-modeling/01-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1989623-D400-A94D-B52F-8ECFAC026AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5ACABD1-F3ED-AE4B-871F-476E18D1780C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1940" yWindow="500" windowWidth="27640" windowHeight="15860" activeTab="1" xr2:uid="{05942F46-CA0F-F744-9F7B-FB5E37380A0B}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15860" activeTab="1" xr2:uid="{05942F46-CA0F-F744-9F7B-FB5E37380A0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping" sheetId="1" r:id="rId1"/>
@@ -1559,12 +1559,6 @@
     <t>Xvar_gender</t>
   </si>
   <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
     <t>Xvar_politics</t>
   </si>
   <si>
@@ -1578,6 +1572,12 @@
   </si>
   <si>
     <t>other</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>female</t>
   </si>
 </sst>
 </file>
@@ -1894,7 +1894,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1999,9 +1999,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2014,7 +2011,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2352,10 +2348,10 @@
   <dimension ref="A1:B233"/>
   <sheetViews>
     <sheetView zoomScale="119" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B212" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A233" sqref="A233"/>
+      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4225,15 +4221,10 @@
         <v>360</v>
       </c>
       <c r="B233" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B231" xr:uid="{C5CCC31B-3E15-5849-A807-1419182007A1}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B231">
-      <sortCondition ref="B1:B231"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4242,14 +4233,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE7EF21-2F33-1340-9D4E-5B996CEF251E}">
   <dimension ref="A1:K70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" style="33" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" style="33" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.33203125" bestFit="1" customWidth="1"/>
@@ -4980,7 +4971,7 @@
       <c r="C41" s="32">
         <v>3</v>
       </c>
-      <c r="D41" s="49" t="s">
+      <c r="D41" t="s">
         <v>437</v>
       </c>
       <c r="E41" s="4" t="s">
@@ -4994,7 +4985,7 @@
       <c r="B42" s="31">
         <v>1</v>
       </c>
-      <c r="C42" s="46" t="s">
+      <c r="C42" s="45" t="s">
         <v>473</v>
       </c>
       <c r="D42" s="1"/>
@@ -5007,7 +4998,7 @@
       <c r="B43" s="31">
         <v>2</v>
       </c>
-      <c r="C43" s="46" t="s">
+      <c r="C43" s="45" t="s">
         <v>474</v>
       </c>
       <c r="D43" s="3"/>
@@ -5020,7 +5011,7 @@
       <c r="B44" s="31">
         <v>8</v>
       </c>
-      <c r="C44" s="46" t="s">
+      <c r="C44" s="45" t="s">
         <v>474</v>
       </c>
       <c r="D44" s="3"/>
@@ -5033,7 +5024,7 @@
       <c r="B45" s="32">
         <v>9</v>
       </c>
-      <c r="C45" s="47" t="s">
+      <c r="C45" s="46" t="s">
         <v>474</v>
       </c>
       <c r="D45" s="3"/>
@@ -5046,7 +5037,7 @@
       <c r="B46" s="30">
         <v>1</v>
       </c>
-      <c r="C46" s="48" t="s">
+      <c r="C46" s="47" t="s">
         <v>473</v>
       </c>
       <c r="D46" s="3"/>
@@ -5060,7 +5051,7 @@
       <c r="B47" s="31">
         <v>2</v>
       </c>
-      <c r="C47" s="46" t="s">
+      <c r="C47" s="45" t="s">
         <v>474</v>
       </c>
       <c r="D47" s="3"/>
@@ -5074,7 +5065,7 @@
       <c r="B48" s="31">
         <v>8</v>
       </c>
-      <c r="C48" s="46" t="s">
+      <c r="C48" s="45" t="s">
         <v>474</v>
       </c>
       <c r="D48" s="3"/>
@@ -5088,7 +5079,7 @@
       <c r="B49" s="32">
         <v>9</v>
       </c>
-      <c r="C49" s="47" t="s">
+      <c r="C49" s="46" t="s">
         <v>474</v>
       </c>
       <c r="D49" s="3"/>
@@ -5102,7 +5093,7 @@
       <c r="B50" s="30">
         <v>1</v>
       </c>
-      <c r="C50" s="48" t="s">
+      <c r="C50" s="47" t="s">
         <v>473</v>
       </c>
       <c r="D50" s="3"/>
@@ -5115,7 +5106,7 @@
       <c r="B51" s="31">
         <v>2</v>
       </c>
-      <c r="C51" s="46" t="s">
+      <c r="C51" s="45" t="s">
         <v>474</v>
       </c>
       <c r="D51" s="3"/>
@@ -5128,7 +5119,7 @@
       <c r="B52" s="31">
         <v>8</v>
       </c>
-      <c r="C52" s="46" t="s">
+      <c r="C52" s="45" t="s">
         <v>474</v>
       </c>
       <c r="D52" s="3"/>
@@ -5141,7 +5132,7 @@
       <c r="B53" s="32">
         <v>9</v>
       </c>
-      <c r="C53" s="47" t="s">
+      <c r="C53" s="46" t="s">
         <v>474</v>
       </c>
       <c r="D53" s="3"/>
@@ -5154,7 +5145,7 @@
       <c r="B54" s="30">
         <v>1</v>
       </c>
-      <c r="C54" s="48" t="s">
+      <c r="C54" s="47" t="s">
         <v>473</v>
       </c>
       <c r="D54" s="3"/>
@@ -5167,7 +5158,7 @@
       <c r="B55" s="31">
         <v>2</v>
       </c>
-      <c r="C55" s="46" t="s">
+      <c r="C55" s="45" t="s">
         <v>474</v>
       </c>
       <c r="D55" s="3"/>
@@ -5180,7 +5171,7 @@
       <c r="B56" s="31">
         <v>8</v>
       </c>
-      <c r="C56" s="46" t="s">
+      <c r="C56" s="45" t="s">
         <v>474</v>
       </c>
       <c r="D56" s="3"/>
@@ -5193,7 +5184,7 @@
       <c r="B57" s="32">
         <v>9</v>
       </c>
-      <c r="C57" s="47" t="s">
+      <c r="C57" s="46" t="s">
         <v>474</v>
       </c>
       <c r="D57" s="3"/>
@@ -5206,7 +5197,7 @@
       <c r="B58" s="30">
         <v>1</v>
       </c>
-      <c r="C58" s="48" t="s">
+      <c r="C58" s="47" t="s">
         <v>473</v>
       </c>
       <c r="D58" s="3"/>
@@ -5219,7 +5210,7 @@
       <c r="B59" s="31">
         <v>2</v>
       </c>
-      <c r="C59" s="46" t="s">
+      <c r="C59" s="45" t="s">
         <v>474</v>
       </c>
       <c r="D59" s="3"/>
@@ -5232,7 +5223,7 @@
       <c r="B60" s="31">
         <v>8</v>
       </c>
-      <c r="C60" s="46" t="s">
+      <c r="C60" s="45" t="s">
         <v>474</v>
       </c>
       <c r="D60" s="3"/>
@@ -5245,7 +5236,7 @@
       <c r="B61" s="32">
         <v>9</v>
       </c>
-      <c r="C61" s="47" t="s">
+      <c r="C61" s="46" t="s">
         <v>474</v>
       </c>
       <c r="D61" s="3"/>
@@ -5259,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="C62" s="29" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="4"/>
@@ -5268,102 +5259,102 @@
       <c r="A63" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="B63" s="32">
+      <c r="B63" s="31">
         <v>2</v>
       </c>
       <c r="C63" s="42" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="4"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B64" s="41">
         <v>1</v>
       </c>
       <c r="C64" s="29" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="4"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="B65" s="44">
+        <v>2</v>
+      </c>
+      <c r="C65" s="33" t="s">
         <v>507</v>
-      </c>
-      <c r="B65" s="45">
-        <v>2</v>
-      </c>
-      <c r="C65" s="44" t="s">
-        <v>509</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="4"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
-        <v>507</v>
-      </c>
-      <c r="B66" s="45">
+        <v>505</v>
+      </c>
+      <c r="B66" s="44">
         <v>3</v>
       </c>
-      <c r="C66" s="44" t="s">
-        <v>510</v>
+      <c r="C66" s="33" t="s">
+        <v>508</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="4"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
-        <v>507</v>
-      </c>
-      <c r="B67" s="45">
+        <v>505</v>
+      </c>
+      <c r="B67" s="44">
         <v>4</v>
       </c>
-      <c r="C67" s="44" t="s">
-        <v>511</v>
+      <c r="C67" s="33" t="s">
+        <v>509</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="4"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
-        <v>507</v>
-      </c>
-      <c r="B68" s="45">
+        <v>505</v>
+      </c>
+      <c r="B68" s="44">
         <v>5</v>
       </c>
-      <c r="C68" s="44" t="s">
-        <v>511</v>
+      <c r="C68" s="33" t="s">
+        <v>509</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="4"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
-        <v>507</v>
-      </c>
-      <c r="B69" s="45">
+        <v>505</v>
+      </c>
+      <c r="B69" s="44">
         <v>8</v>
       </c>
-      <c r="C69" s="44" t="s">
-        <v>511</v>
+      <c r="C69" s="33" t="s">
+        <v>509</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="4"/>
     </row>
     <row r="70" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B70" s="43">
         <v>9</v>
       </c>
       <c r="C70" s="42" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="6"/>

--- a/01-data/column_rename_mapping.xlsx
+++ b/01-data/column_rename_mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danramirez/mbs-structural-equation-modeling/01-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5ACABD1-F3ED-AE4B-871F-476E18D1780C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED2C0CB-06DB-0946-841E-E184BD16BD90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15860" activeTab="1" xr2:uid="{05942F46-CA0F-F744-9F7B-FB5E37380A0B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" activeTab="1" xr2:uid="{05942F46-CA0F-F744-9F7B-FB5E37380A0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="727">
   <si>
     <t>OldName</t>
   </si>
@@ -1466,118 +1466,763 @@
     <t>Yes</t>
   </si>
   <si>
+    <t>Regrouping</t>
+  </si>
+  <si>
+    <t>_confidence</t>
+  </si>
+  <si>
+    <t>Xvar_Q07_01_PublicInterestMgnt_FedGovt_confidence</t>
+  </si>
+  <si>
+    <t>Xvar_Q07_02_PublicInterestMgnt_StateGovt_confidence</t>
+  </si>
+  <si>
+    <t>Xvar_Q07_03_PublicInterestMgnt_inetergovtResaerchOrg_confidence</t>
+  </si>
+  <si>
+    <t>Xvar_Q07_04_PublicInterestMgnt_UN_confidence</t>
+  </si>
+  <si>
+    <t>Xvar_Q07_05_PublicInterestMgnt_inetergovtResaerchOrg_confidence</t>
+  </si>
+  <si>
+    <t>Xvar_Q07_06_PublicInterestMgnt_TechCOs_confidence</t>
+  </si>
+  <si>
+    <t>Xvar_Q07_07_PublicInterestMgnt_GOogle_confidence</t>
+  </si>
+  <si>
+    <t>Xvar_Q07_08_PublicInterestMgnt_Facebook_confidence</t>
+  </si>
+  <si>
+    <t>Xvar_Q07_09_PublicInterestMgnt_Apple_confidence</t>
+  </si>
+  <si>
+    <t>Xvar_Q07_10_PublicInterestMgnt_Microsoft_confidence</t>
+  </si>
+  <si>
+    <t>Xvar_Q07_11_PublicInterestMgnt_Amazon_confidence</t>
+  </si>
+  <si>
+    <t>Xvar_Q07_12_PublicInterestMgnt_NGOs_confidence</t>
+  </si>
+  <si>
+    <t>Xvar_Q07_13_PublicInterestMgnt_PartnershipsonIA_confidence</t>
+  </si>
+  <si>
+    <t>_important</t>
+  </si>
+  <si>
+    <t>Xvar_politics</t>
+  </si>
+  <si>
+    <t>Dem</t>
+  </si>
+  <si>
+    <t>Gop</t>
+  </si>
+  <si>
+    <t>independent</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>Strongly Support</t>
+  </si>
+  <si>
+    <t>Somewhat Support</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Neither support nor oppose</t>
+  </si>
+  <si>
+    <t>Somewhat opose</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Xvar_Q01_R01_Failure_climate_likelihood</t>
+  </si>
+  <si>
+    <t>Xvar_Q01_R02_Failure_Govt_likelihood</t>
+  </si>
+  <si>
+    <t>Xvar_Q01_R03_Conflict_btw_Countries_likelihood</t>
+  </si>
+  <si>
+    <t>Xvar_Q01_R04_WMD_likelihood</t>
+  </si>
+  <si>
+    <t>Xvar_Q01_R05_Migration_likelihood</t>
+  </si>
+  <si>
+    <t>Xvar_Q01_R06_Disease_likelihood</t>
+  </si>
+  <si>
+    <t>Xvar_Q01_R07_WaterCrises_likelihood</t>
+  </si>
+  <si>
+    <t>Xvar_Q01_R08_FoodCrises_likelihood</t>
+  </si>
+  <si>
+    <t>Xvar_Q01_R09_Harmful_AI_likelihood</t>
+  </si>
+  <si>
+    <t>Xvar_Q01_R10_Harmful_syntheticBio_likelihood</t>
+  </si>
+  <si>
+    <t>Xvar_Q01_R11_CyberAttacks_likelihood</t>
+  </si>
+  <si>
+    <t>Xvar_Q01_R12_TerroristaAttacks_likelihood</t>
+  </si>
+  <si>
+    <t>Xvar_Q01_R13_GlobalRecession_likelihood</t>
+  </si>
+  <si>
+    <t>Xvar_Q01_R14_ExtremeWeather_likelihood</t>
+  </si>
+  <si>
+    <t>Xvar_Q01_R15_NaturalDisaster_likelihood</t>
+  </si>
+  <si>
+    <t>Xvar_Q08_R01_Challenge_EmployersUseofAI_US_likelihood</t>
+  </si>
+  <si>
+    <t>Xvar_Q08_R02_Challenge_EmloyeesUseofAI_US_likelihood</t>
+  </si>
+  <si>
+    <t>Xvar_Q08_R03_Challenge_CrimeRate_US_likelihood</t>
+  </si>
+  <si>
+    <t>Xvar_Q08_R04_Challenge_AIAdoptation_US_likelihood</t>
+  </si>
+  <si>
+    <t>Xvar_Q08_R05_Challenge_AlgoUseofBigData_US_likelihood</t>
+  </si>
+  <si>
+    <t>Xvar_Q08_R06_Challenge_COsSelfdrivingCars_US_likelihood</t>
+  </si>
+  <si>
+    <t>Xvar_Q08_R07_Challenge_AIDeployed_US_likelihood</t>
+  </si>
+  <si>
+    <t>Xvar_Q08_R08_Challenge_AIRegulations_US_likelihood</t>
+  </si>
+  <si>
+    <t>Xvar_Q08_R09_Challenge_AIAgreement_US_likelihood</t>
+  </si>
+  <si>
+    <t>Xvar_Q08_R10_Challenge_AIDevs_US_likelihood</t>
+  </si>
+  <si>
+    <t>Xvar_Q08_R11_Challenge_Autonomous_Weapons_US_likelihood</t>
+  </si>
+  <si>
+    <t>Xvar_Q08_R12_Challenge_Goodstandardoflving_US_likelihood</t>
+  </si>
+  <si>
+    <t>Xvar_Q08_R13_Challenge_AISyPoseRisk_US_likelihood</t>
+  </si>
+  <si>
+    <t>Xvar_Q09_R01_Challenge_EmployersUseofAI_World_likelihood</t>
+  </si>
+  <si>
+    <t>Xvar_Q09_R02_Challenge_EmloyeesUseofAI_World_likelihood</t>
+  </si>
+  <si>
+    <t>Xvar_Q09_R03_Challenge_CrimeRate_World_likelihood</t>
+  </si>
+  <si>
+    <t>Xvar_Q09_R04_Challenge_AIAdoptation_World_likelihood</t>
+  </si>
+  <si>
+    <t>Xvar_Q09_R05_Challenge_AlgoUseofBigData_World_likelihood</t>
+  </si>
+  <si>
+    <t>Xvar_Q09_R06_Challenge_COsSelfdrivingCars_World_likelihood</t>
+  </si>
+  <si>
+    <t>Xvar_Q09_R07_Challenge_AIDeployed_World_likelihood</t>
+  </si>
+  <si>
+    <t>Xvar_Q09_R09_Challenge_AIAgreement_World_likelihood</t>
+  </si>
+  <si>
+    <t>Xvar_Q09_R09_Challenge_AIRegulations_World_likelihood</t>
+  </si>
+  <si>
+    <t>Xvar_Q09_R10_Challenge_AIDevs_World_likelihood</t>
+  </si>
+  <si>
+    <t>Xvar_Q09_R11_Challenge_Autonomous_Weapons_World_likelihood</t>
+  </si>
+  <si>
+    <t>Xvar_Q09_R12_Challenge_Goodstandardoflving_World_likelihood</t>
+  </si>
+  <si>
+    <t>Xvar_Q09_R13_Challenge_AISyPoseRisk_World_likelihood</t>
+  </si>
+  <si>
+    <t>Xvar_Q14_R01_cyberattackVsGovt_ChinaUS_likelihood</t>
+  </si>
+  <si>
+    <t>Xvar_Q14_R02_PreventAIsurveillance_ChinaUS_likelihood</t>
+  </si>
+  <si>
+    <t>Xvar_Q14_R03_SafeAISys_ChinaUS_likelihood</t>
+  </si>
+  <si>
+    <t>Xvar_Q14_R04_BanAIweapons_ChinaUS_likelihood</t>
+  </si>
+  <si>
+    <t>Xvar_Q14_R05_Goodstandardoflving_ChinaUS_likelihood</t>
+  </si>
+  <si>
+    <t>Xvar_Q16_R01_HighLevelAIin10yrs_likelihood</t>
+  </si>
+  <si>
+    <t>Xvar_Q16_R02_HighLevelAIin20yrs_likelihood</t>
+  </si>
+  <si>
+    <t>Xvar_Q16_R03_HighLevelAIin50yrs_likelihood</t>
+  </si>
+  <si>
+    <t>Xvar_Q02_R01_Failure_climate_impact</t>
+  </si>
+  <si>
+    <t>Xvar_Q02_R02_Failure_Govt_impact</t>
+  </si>
+  <si>
+    <t>Xvar_Q02_R03_Conflict_btw_Countries_impact</t>
+  </si>
+  <si>
+    <t>Xvar_Q02_R04_WMD_impact</t>
+  </si>
+  <si>
+    <t>Xvar_Q02_R05_Migration_impact</t>
+  </si>
+  <si>
+    <t>Xvar_Q02_R06_Disease_impact</t>
+  </si>
+  <si>
+    <t>Xvar_Q02_R07_WaterCrises_impact</t>
+  </si>
+  <si>
+    <t>Xvar_Q02_R08_FoodCrises_impact</t>
+  </si>
+  <si>
+    <t>Xvar_Q02_R09_Harmful_AI_impact</t>
+  </si>
+  <si>
+    <t>Xvar_Q02_R10_Harmful_syntheticBio_impact</t>
+  </si>
+  <si>
+    <t>Xvar_Q02_R11_CyberAttacks_impact</t>
+  </si>
+  <si>
+    <t>Xvar_Q02_R12_TerroristaAttacks_impact</t>
+  </si>
+  <si>
+    <t>Xvar_Q02_R13_GlobalRecession_impact</t>
+  </si>
+  <si>
+    <t>Xvar_Q02_R14_ExtremeWeather_impact</t>
+  </si>
+  <si>
+    <t>Xvar_Q02_R15_NaturalDisaster_impact</t>
+  </si>
+  <si>
+    <t>Xvar_Q06_R01_PublicInterest_military_confidence</t>
+  </si>
+  <si>
+    <t>Xvar_Q06_R02_PublicInterest_CilivianGovt_confidence</t>
+  </si>
+  <si>
+    <t>Xvar_Q06_R03_PublicInterest_NSA_confidence</t>
+  </si>
+  <si>
+    <t>Xvar_Q06_R04_PublicInterest_FBI_confidence</t>
+  </si>
+  <si>
+    <t>Xvar_Q06_R05_PublicInterest_CIA_confidence</t>
+  </si>
+  <si>
+    <t>Xvar_Q06_R06_PublicInterest_NATO_confidence</t>
+  </si>
+  <si>
+    <t>Xvar_Q06_R07_PublicInterest_InternationalResearch_confidence</t>
+  </si>
+  <si>
+    <t>Xvar_Q06_R08_PublicInterest_TechCos_confidence</t>
+  </si>
+  <si>
+    <t>Xvar_Q06_R09_PublicInterest_Google_confidence</t>
+  </si>
+  <si>
+    <t>Xvar_Q06_R10_PublicInterest_Facebook_confidence</t>
+  </si>
+  <si>
+    <t>Xvar_Q06_R11_PublicInterest_Apple_confidence</t>
+  </si>
+  <si>
+    <t>Xvar_Q06_R12_PublicInterest_MSFT_confidence</t>
+  </si>
+  <si>
+    <t>Xvar_Q06_R13_PublicInterest_Amazon_confidence</t>
+  </si>
+  <si>
+    <t>Xvar_Q06_R14_PublicInterest_nonproffit_confidence</t>
+  </si>
+  <si>
+    <t>Xvar_Q06_R15_PublicInterest_University_confidence</t>
+  </si>
+  <si>
+    <t>Xvar_Q07_R01_PublicInterestMgnt_FedGovt_confidence</t>
+  </si>
+  <si>
+    <t>Xvar_Q07_R02_PublicInterestMgnt_StateGovt_confidence</t>
+  </si>
+  <si>
+    <t>Xvar_Q07_R03_PublicInterestMgnt_inetergovtResaerchOrg_confidence</t>
+  </si>
+  <si>
+    <t>Xvar_Q07_R04_PublicInterestMgnt_UN_confidence</t>
+  </si>
+  <si>
+    <t>Xvar_Q07_R05_PublicInterestMgnt_inetergovtResaerchOrg_confidence</t>
+  </si>
+  <si>
+    <t>Xvar_Q07_R06_PublicInterestMgnt_TechCOs_confidence</t>
+  </si>
+  <si>
+    <t>Xvar_Q07_R07_PublicInterestMgnt_GOogle_confidence</t>
+  </si>
+  <si>
+    <t>Xvar_Q07_R08_PublicInterestMgnt_Facebook_confidence</t>
+  </si>
+  <si>
+    <t>Xvar_Q07_R09_PublicInterestMgnt_Apple_confidence</t>
+  </si>
+  <si>
+    <t>Xvar_Q07_R10_PublicInterestMgnt_Microsoft_confidence</t>
+  </si>
+  <si>
+    <t>Xvar_Q07_R11_PublicInterestMgnt_Amazon_confidence</t>
+  </si>
+  <si>
+    <t>Xvar_Q07_R12_PublicInterestMgnt_NGOs_confidence</t>
+  </si>
+  <si>
+    <t>Xvar_Q07_R13_PublicInterestMgnt_PartnershipsonIA_confidence</t>
+  </si>
+  <si>
+    <t>Xvar_Q13_R01_workwChina_agreement</t>
+  </si>
+  <si>
+    <t>Xvar_Q12_R01_USMilitaryAI_agreement</t>
+  </si>
+  <si>
+    <t>Xvar_Q15_R01_AutomationJobs_agreement</t>
+  </si>
+  <si>
+    <t>Xvar_Q04_R01_ed_courses_CS</t>
+  </si>
+  <si>
+    <t>Xvar_Q04_R02_ed_undergrad_CS</t>
+  </si>
+  <si>
+    <t>Xvar_Q04_R03_ed_Grad_CS</t>
+  </si>
+  <si>
+    <t>Xvar_Q04_R04_ed_program_exp</t>
+  </si>
+  <si>
+    <t>Xvar_Q04_R05_ed_none</t>
+  </si>
+  <si>
+    <t>Xvar_Q10_R01_manage_EmployersUseofAI_important</t>
+  </si>
+  <si>
+    <t>Xvar_Q10_R02_manage_EmloyeesUseofAI_important</t>
+  </si>
+  <si>
+    <t>Xvar_Q10_R03_manage_CrimeRate_important</t>
+  </si>
+  <si>
+    <t>Xvar_Q10_R04_manage_AIAdoptation_important</t>
+  </si>
+  <si>
+    <t>Xvar_Q10_R05_manage_AlgoUseofBigData_important</t>
+  </si>
+  <si>
+    <t>Xvar_Q10_R06_manage_COsSelfdrivingCars_important</t>
+  </si>
+  <si>
+    <t>Xvar_Q10_R07_manage_AIDeployed_important</t>
+  </si>
+  <si>
+    <t>Xvar_Q10_R08_manage_AIRegulations_important</t>
+  </si>
+  <si>
+    <t>Xvar_Q10_R09_manage_AIAgreement_important</t>
+  </si>
+  <si>
+    <t>Xvar_Q10_R10_manage_AIDevs_important</t>
+  </si>
+  <si>
+    <t>Xvar_Q10_R11_manage_Autonomous_Weapons_important</t>
+  </si>
+  <si>
+    <t>Xvar_Q10_R12_manage_Goodstandardoflving_important</t>
+  </si>
+  <si>
+    <t>Xvar_Q10_R13_manage_AISyPoseRisk_important</t>
+  </si>
+  <si>
+    <t>Xvar_Q12a_R01_AIResearch_US_Rank</t>
+  </si>
+  <si>
+    <t>Xvar_q12b_treat_R01_AIResearch_China_Rank</t>
+  </si>
+  <si>
+    <t>$20,000 - $29,999</t>
+  </si>
+  <si>
+    <t>$30,000 - $39,999</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $40,000 - $49,999</t>
+  </si>
+  <si>
+    <t>$50,000 - $59,999</t>
+  </si>
+  <si>
+    <t>$60,000 - $69,999</t>
+  </si>
+  <si>
+    <t>$70,000 - $79,999</t>
+  </si>
+  <si>
+    <t>$80,000 - $99,999</t>
+  </si>
+  <si>
+    <t>$100,000 - $119,999</t>
+  </si>
+  <si>
+    <t>$120,000 - $149,999</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $150,000 - $199,999</t>
+  </si>
+  <si>
+    <t>$200,000 - $249,999</t>
+  </si>
+  <si>
+    <t>$250,000 - $349,999</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $500,000 or more</t>
+  </si>
+  <si>
+    <t>Prefer not to say</t>
+  </si>
+  <si>
+    <t>skipped</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> not asked</t>
+  </si>
+  <si>
+    <t>$10,000 - $19,999</t>
+  </si>
+  <si>
+    <t>Low Income</t>
+  </si>
+  <si>
+    <t>Lower-Middle Income</t>
+  </si>
+  <si>
+    <t>Middle Income</t>
+  </si>
+  <si>
+    <t>High income</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Married</t>
+  </si>
+  <si>
+    <t>Separated</t>
+  </si>
+  <si>
+    <t>Divorced</t>
+  </si>
+  <si>
+    <t>Widowed</t>
+  </si>
+  <si>
+    <t>Never Married</t>
+  </si>
+  <si>
+    <t>Civil Partner</t>
+  </si>
+  <si>
+    <t>No HS</t>
+  </si>
+  <si>
+    <t>High School Grad</t>
+  </si>
+  <si>
+    <t>Some College</t>
+  </si>
+  <si>
+    <t>2yr college</t>
+  </si>
+  <si>
+    <t>4yr college</t>
+  </si>
+  <si>
+    <t>Postgrad</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Hispanic</t>
+  </si>
+  <si>
+    <t>Asian</t>
+  </si>
+  <si>
+    <t>Native American</t>
+  </si>
+  <si>
+    <t>Mixed</t>
+  </si>
+  <si>
+    <t>Middle East</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Alaska</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>Delaware</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>Idaho</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>Maine</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Rhode</t>
+  </si>
+  <si>
+    <t>South</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>Montana</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Vermont</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>West</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>New Hampshire</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>North Dakota</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>South Dakota</t>
+  </si>
+  <si>
+    <t>Northeast</t>
+  </si>
+  <si>
+    <t>Midwest</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>$350,000 - $499,999</t>
+  </si>
+  <si>
+    <t>Upper-Middle Income</t>
+  </si>
+  <si>
+    <t>Less than $10,000</t>
+  </si>
+  <si>
+    <t>hhi</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
-    <t>Regrouping</t>
-  </si>
-  <si>
-    <t>_confidence</t>
-  </si>
-  <si>
-    <t>Xvar_Q07_01_PublicInterestMgnt_FedGovt_confidence</t>
-  </si>
-  <si>
-    <t>Xvar_Q07_02_PublicInterestMgnt_StateGovt_confidence</t>
-  </si>
-  <si>
-    <t>Xvar_Q07_03_PublicInterestMgnt_inetergovtResaerchOrg_confidence</t>
-  </si>
-  <si>
-    <t>Xvar_Q07_04_PublicInterestMgnt_UN_confidence</t>
-  </si>
-  <si>
-    <t>Xvar_Q07_05_PublicInterestMgnt_inetergovtResaerchOrg_confidence</t>
-  </si>
-  <si>
-    <t>Xvar_Q07_06_PublicInterestMgnt_TechCOs_confidence</t>
-  </si>
-  <si>
-    <t>Xvar_Q07_07_PublicInterestMgnt_GOogle_confidence</t>
-  </si>
-  <si>
-    <t>Xvar_Q07_08_PublicInterestMgnt_Facebook_confidence</t>
-  </si>
-  <si>
-    <t>Xvar_Q07_09_PublicInterestMgnt_Apple_confidence</t>
-  </si>
-  <si>
-    <t>Xvar_Q07_10_PublicInterestMgnt_Microsoft_confidence</t>
-  </si>
-  <si>
-    <t>Xvar_Q07_11_PublicInterestMgnt_Amazon_confidence</t>
-  </si>
-  <si>
-    <t>Xvar_Q07_12_PublicInterestMgnt_NGOs_confidence</t>
-  </si>
-  <si>
-    <t>Xvar_Q07_13_PublicInterestMgnt_PartnershipsonIA_confidence</t>
-  </si>
-  <si>
-    <t>Xvar_Q10_01_manage_EmployersUseofAI_important</t>
-  </si>
-  <si>
-    <t>Xvar_Q10_02_manage_EmloyeesUseofAI_important</t>
-  </si>
-  <si>
-    <t>Xvar_Q10_03_manage_CrimeRate_important</t>
-  </si>
-  <si>
-    <t>Xvar_Q10_04_manage_AIAdoptation_important</t>
-  </si>
-  <si>
-    <t>Xvar_Q10_05_manage_AlgoUseofBigData_important</t>
-  </si>
-  <si>
-    <t>Xvar_Q10_06_manage_COsSelfdrivingCars_important</t>
-  </si>
-  <si>
-    <t>Xvar_Q10_07_manage_AIDeployed_important</t>
-  </si>
-  <si>
-    <t>Xvar_Q10_08_manage_AIRegulations_important</t>
-  </si>
-  <si>
-    <t>Xvar_Q10_09_manage_AIAgreement_important</t>
-  </si>
-  <si>
-    <t>Xvar_Q10_10_manage_AIDevs_important</t>
-  </si>
-  <si>
-    <t>Xvar_Q10_11_manage_Autonomous_Weapons_important</t>
-  </si>
-  <si>
-    <t>Xvar_Q10_12_manage_Goodstandardoflving_important</t>
-  </si>
-  <si>
-    <t>Xvar_Q10_13_manage_AISyPoseRisk_important</t>
-  </si>
-  <si>
-    <t>_important</t>
-  </si>
-  <si>
-    <t>Xvar_gender</t>
-  </si>
-  <si>
-    <t>Xvar_politics</t>
-  </si>
-  <si>
-    <t>Dem</t>
-  </si>
-  <si>
-    <t>Gop</t>
-  </si>
-  <si>
-    <t>independent</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>female</t>
+    <t>Temporarily laid off</t>
+  </si>
+  <si>
+    <t>Full time</t>
+  </si>
+  <si>
+    <t>Part time</t>
+  </si>
+  <si>
+    <t>Unemployed</t>
+  </si>
+  <si>
+    <t>Retired</t>
+  </si>
+  <si>
+    <t>Permanently disabled</t>
+  </si>
+  <si>
+    <t>Homemaker</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
 </sst>
 </file>
@@ -1587,7 +2232,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1629,6 +2274,12 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3B3B3B"/>
+      <name val="Menlo"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1894,7 +2545,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1954,21 +2605,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1981,36 +2617,97 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2345,18 +3042,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5CCC31B-3E15-5849-A807-1419182007A1}">
-  <dimension ref="A1:B233"/>
+  <dimension ref="A1:B231"/>
   <sheetViews>
     <sheetView zoomScale="119" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="82.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2381,7 +3078,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>501</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2405,1823 +3102,1807 @@
         <v>359</v>
       </c>
       <c r="B6" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="B7" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
         <v>364</v>
       </c>
-      <c r="B8" t="s">
-        <v>364</v>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>362</v>
+      <c r="A9" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>361</v>
+        <v>4</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>361</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+    </row>
+    <row r="22" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B22" s="6" t="s">
         <v>355</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>366</v>
+      </c>
+      <c r="B23" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B24" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>363</v>
+        <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>363</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
+        <v>502</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>503</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>371</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>504</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>372</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>505</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>506</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="B35" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="B36" t="s">
-        <v>20</v>
+        <v>507</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="B37" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="B38" t="s">
-        <v>22</v>
+        <v>508</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="B39" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="B40" t="s">
-        <v>24</v>
+        <v>509</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="B41" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="B42" t="s">
-        <v>26</v>
+        <v>510</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="B43" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="B44" t="s">
-        <v>28</v>
+        <v>511</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="B45" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="B46" t="s">
-        <v>30</v>
+        <v>512</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="B47" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="B48" t="s">
-        <v>32</v>
+        <v>513</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="B49" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>514</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="B51" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="B52" t="s">
-        <v>36</v>
+        <v>515</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="B53" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="B54" t="s">
-        <v>38</v>
+        <v>516</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="B55" t="s">
-        <v>96</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B56" t="s">
-        <v>40</v>
+        <v>551</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B57" t="s">
-        <v>44</v>
+        <v>552</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B58" t="s">
-        <v>47</v>
+        <v>553</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B59" t="s">
-        <v>50</v>
+        <v>554</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>54</v>
+        <v>555</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>58</v>
+        <v>556</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>62</v>
+        <v>557</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>66</v>
+        <v>558</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B64" t="s">
-        <v>70</v>
+        <v>559</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B65" t="s">
-        <v>74</v>
+        <v>560</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B66" t="s">
-        <v>78</v>
+        <v>561</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B67" t="s">
-        <v>82</v>
+        <v>562</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B68" t="s">
-        <v>86</v>
+        <v>563</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B69" t="s">
-        <v>90</v>
+        <v>564</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B70" t="s">
-        <v>94</v>
+        <v>565</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B71" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B72" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B73" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B74" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B75" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B76" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B77" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B78" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B79" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B80" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B81" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B82" t="s">
-        <v>120</v>
+        <v>597</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B83" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B84" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>125</v>
-      </c>
-      <c r="B85" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>127</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>153</v>
-      </c>
-      <c r="B99" s="8" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>155</v>
-      </c>
-      <c r="B100" s="9" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>157</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>373</v>
+        <v>159</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>160</v>
+        <v>566</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>192</v>
+        <v>567</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>194</v>
+        <v>568</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>196</v>
+        <v>569</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>198</v>
+        <v>570</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>200</v>
+        <v>571</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>202</v>
+        <v>572</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>204</v>
+        <v>573</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>206</v>
+        <v>574</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>208</v>
+        <v>575</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>210</v>
+        <v>576</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>213</v>
-      </c>
-      <c r="B114" s="8" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>215</v>
-      </c>
-      <c r="B115" s="9" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="B115" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B116" t="s">
-        <v>218</v>
+        <v>580</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>219</v>
+        <v>161</v>
       </c>
       <c r="B117" t="s">
-        <v>220</v>
+        <v>162</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B118" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B119" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B120" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B121" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B122" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B123" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B124" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B125" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B126" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B127" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>181</v>
-      </c>
-      <c r="B128" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>183</v>
-      </c>
-      <c r="B129" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>189</v>
+        <v>247</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>190</v>
+        <v>581</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>477</v>
+        <v>582</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>478</v>
+        <v>583</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>479</v>
+        <v>584</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>480</v>
+        <v>585</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>481</v>
+        <v>586</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>482</v>
+        <v>587</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>254</v>
-      </c>
-      <c r="B140" s="8" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>255</v>
-      </c>
-      <c r="B141" s="9" t="s">
-        <v>485</v>
+        <v>256</v>
+      </c>
+      <c r="B141" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B142" t="s">
-        <v>486</v>
+        <v>591</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B143" t="s">
-        <v>487</v>
+        <v>592</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B144" t="s">
-        <v>488</v>
+        <v>593</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="B145" t="s">
-        <v>489</v>
+        <v>222</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B146" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B147" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B148" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B149" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B150" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B151" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B152" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B153" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>237</v>
-      </c>
-      <c r="B154" t="s">
-        <v>238</v>
+        <v>239</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>239</v>
-      </c>
-      <c r="B155" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>245</v>
+        <v>286</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>246</v>
+        <v>517</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>378</v>
+        <v>518</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>376</v>
+        <v>519</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>379</v>
+        <v>520</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>381</v>
+        <v>521</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>383</v>
+        <v>522</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>385</v>
+        <v>523</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>387</v>
+        <v>524</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>389</v>
+        <v>525</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>391</v>
+        <v>526</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>393</v>
+        <v>527</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>395</v>
+        <v>528</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>397</v>
+        <v>529</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>322</v>
+        <v>266</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>399</v>
+        <v>267</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>283</v>
+        <v>530</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>375</v>
+        <v>531</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>377</v>
+        <v>532</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>380</v>
+        <v>533</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>382</v>
+        <v>534</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>384</v>
+        <v>535</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>386</v>
+        <v>536</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>311</v>
-      </c>
-      <c r="B192" s="8" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+      <c r="B192" s="9" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>308</v>
-      </c>
-      <c r="B193" s="9" t="s">
-        <v>390</v>
+        <v>314</v>
+      </c>
+      <c r="B193" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B194" t="s">
-        <v>394</v>
+        <v>540</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B195" t="s">
-        <v>396</v>
+        <v>541</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B196" t="s">
-        <v>398</v>
+        <v>542</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="B197" t="s">
-        <v>400</v>
+        <v>602</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B198" t="s">
-        <v>490</v>
+        <v>603</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B199" t="s">
-        <v>491</v>
+        <v>604</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B200" t="s">
-        <v>492</v>
+        <v>605</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B201" t="s">
-        <v>493</v>
+        <v>606</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B202" t="s">
-        <v>494</v>
+        <v>607</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B203" t="s">
-        <v>495</v>
+        <v>608</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B204" t="s">
-        <v>496</v>
+        <v>609</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B205" t="s">
-        <v>497</v>
+        <v>610</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B206" t="s">
-        <v>498</v>
+        <v>611</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B207" t="s">
-        <v>499</v>
+        <v>612</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B208" t="s">
-        <v>500</v>
+        <v>613</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B209" t="s">
-        <v>501</v>
+        <v>614</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="B210" t="s">
-        <v>502</v>
+        <v>595</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B211" t="s">
-        <v>330</v>
+        <v>615</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B212" t="s">
-        <v>326</v>
+        <v>616</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B213" t="s">
-        <v>328</v>
+        <v>594</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="B214" t="s">
-        <v>332</v>
+        <v>543</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B215" t="s">
-        <v>419</v>
+        <v>544</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B216" t="s">
-        <v>420</v>
+        <v>545</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B217" t="s">
-        <v>421</v>
+        <v>546</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B218" t="s">
-        <v>422</v>
+        <v>547</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="B219" t="s">
-        <v>423</v>
+        <v>463</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B220" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B221" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B222" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B223" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="B224" t="s">
-        <v>467</v>
+        <v>596</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B225" t="s">
-        <v>344</v>
+        <v>548</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B226" t="s">
-        <v>346</v>
+        <v>549</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B227" t="s">
-        <v>348</v>
+        <v>550</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>349</v>
+        <v>158</v>
       </c>
       <c r="B228" t="s">
-        <v>350</v>
+        <v>374</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>158</v>
+        <v>351</v>
       </c>
       <c r="B229" t="s">
-        <v>374</v>
+        <v>425</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B230" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A231" t="s">
-        <v>352</v>
+      <c r="A231" s="26" t="s">
+        <v>360</v>
       </c>
       <c r="B231" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A232" t="s">
-        <v>354</v>
-      </c>
-      <c r="B232" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A233" s="26" t="s">
-        <v>360</v>
-      </c>
-      <c r="B233" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
     </row>
   </sheetData>
@@ -4231,47 +4912,48 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE7EF21-2F33-1340-9D4E-5B996CEF251E}">
-  <dimension ref="A1:K70"/>
+  <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A185" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A190" sqref="A190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" style="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="46.5" style="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
         <v>414</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="36" t="s">
         <v>426</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="42" t="s">
         <v>462</v>
       </c>
       <c r="D1" s="27" t="s">
         <v>415</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="29" t="s">
         <v>416</v>
       </c>
-      <c r="B2" s="30">
+      <c r="B2" s="37">
         <v>1</v>
       </c>
-      <c r="C2" s="30">
-        <v>1</v>
+      <c r="C2" s="40">
+        <v>5</v>
       </c>
       <c r="D2" s="27" t="s">
         <v>427</v>
@@ -4280,15 +4962,15 @@
         <v>452</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="35" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="30" t="s">
         <v>416</v>
       </c>
-      <c r="B3" s="31">
+      <c r="B3" s="38">
         <v>2</v>
       </c>
-      <c r="C3" s="31">
-        <v>2</v>
+      <c r="C3" s="43">
+        <v>4</v>
       </c>
       <c r="D3" t="s">
         <v>438</v>
@@ -4297,14 +4979,14 @@
         <v>452</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="35" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="30" t="s">
         <v>416</v>
       </c>
-      <c r="B4" s="31">
+      <c r="B4" s="38">
         <v>3</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="43">
         <v>3</v>
       </c>
       <c r="D4" t="s">
@@ -4314,15 +4996,15 @@
         <v>430</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="35" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="30" t="s">
         <v>416</v>
       </c>
-      <c r="B5" s="31">
+      <c r="B5" s="38">
         <v>4</v>
       </c>
-      <c r="C5" s="31">
-        <v>4</v>
+      <c r="C5" s="43">
+        <v>2</v>
       </c>
       <c r="D5" t="s">
         <v>428</v>
@@ -4331,15 +5013,15 @@
         <v>453</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="35" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="30" t="s">
         <v>416</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6" s="38">
         <v>5</v>
       </c>
-      <c r="C6" s="31">
-        <v>5</v>
+      <c r="C6" s="43">
+        <v>1</v>
       </c>
       <c r="D6" t="s">
         <v>429</v>
@@ -4348,14 +5030,14 @@
         <v>453</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="35" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="30" t="s">
         <v>416</v>
       </c>
-      <c r="B7" s="31">
+      <c r="B7" s="38">
         <v>6</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="43">
         <v>3</v>
       </c>
       <c r="D7" t="s">
@@ -4365,14 +5047,14 @@
         <v>430</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="35" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="30" t="s">
         <v>416</v>
       </c>
-      <c r="B8" s="31">
+      <c r="B8" s="38">
         <v>8</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="43">
         <v>3</v>
       </c>
       <c r="D8" t="s">
@@ -4382,14 +5064,14 @@
         <v>430</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
+    <row r="9" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
         <v>416</v>
       </c>
-      <c r="B9" s="32">
+      <c r="B9" s="39">
         <v>9</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="41">
         <v>3</v>
       </c>
       <c r="D9" s="28" t="s">
@@ -4399,15 +5081,15 @@
         <v>430</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="34" t="s">
-        <v>476</v>
-      </c>
-      <c r="B10" s="30">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="29" t="s">
+        <v>475</v>
+      </c>
+      <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="30">
-        <v>1</v>
+      <c r="C10" s="40">
+        <v>4</v>
       </c>
       <c r="D10" s="27" t="s">
         <v>431</v>
@@ -4416,15 +5098,15 @@
         <v>454</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="35" t="s">
-        <v>476</v>
-      </c>
-      <c r="B11" s="31">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="30" t="s">
+        <v>475</v>
+      </c>
+      <c r="B11" s="38">
         <v>2</v>
       </c>
-      <c r="C11" s="31">
-        <v>2</v>
+      <c r="C11" s="43">
+        <v>3</v>
       </c>
       <c r="D11" t="s">
         <v>432</v>
@@ -4433,15 +5115,15 @@
         <v>454</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="35" t="s">
-        <v>476</v>
-      </c>
-      <c r="B12" s="31">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="30" t="s">
+        <v>475</v>
+      </c>
+      <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="31">
-        <v>3</v>
+      <c r="C12" s="43">
+        <v>2</v>
       </c>
       <c r="D12" t="s">
         <v>433</v>
@@ -4450,15 +5132,15 @@
         <v>434</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="35" t="s">
-        <v>476</v>
-      </c>
-      <c r="B13" s="31">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="30" t="s">
+        <v>475</v>
+      </c>
+      <c r="B13" s="38">
         <v>4</v>
       </c>
-      <c r="C13" s="31">
-        <v>4</v>
+      <c r="C13" s="43">
+        <v>1</v>
       </c>
       <c r="D13" t="s">
         <v>434</v>
@@ -4467,14 +5149,14 @@
         <v>434</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="35" t="s">
-        <v>476</v>
-      </c>
-      <c r="B14" s="31">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="30" t="s">
+        <v>475</v>
+      </c>
+      <c r="B14" s="38">
         <v>5</v>
       </c>
-      <c r="C14" s="31">
+      <c r="C14" s="43">
         <v>2.5</v>
       </c>
       <c r="D14" t="s">
@@ -4484,14 +5166,14 @@
         <v>455</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="35" t="s">
-        <v>476</v>
-      </c>
-      <c r="B15" s="31">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="30" t="s">
+        <v>475</v>
+      </c>
+      <c r="B15" s="38">
         <v>8</v>
       </c>
-      <c r="C15" s="31">
+      <c r="C15" s="43">
         <v>2.5</v>
       </c>
       <c r="D15" t="s">
@@ -4500,16 +5182,15 @@
       <c r="E15" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="F15" s="26"/>
-    </row>
-    <row r="16" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
-        <v>476</v>
-      </c>
-      <c r="B16" s="32">
+    </row>
+    <row r="16" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="31" t="s">
+        <v>475</v>
+      </c>
+      <c r="B16" s="39">
         <v>9</v>
       </c>
-      <c r="C16" s="32">
+      <c r="C16" s="41">
         <v>2.5</v>
       </c>
       <c r="D16" s="28" t="s">
@@ -4518,17 +5199,16 @@
       <c r="E16" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="F16" s="26"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="35" t="s">
-        <v>503</v>
-      </c>
-      <c r="B17" s="30">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="30" t="s">
+        <v>489</v>
+      </c>
+      <c r="B17" s="37">
         <v>1</v>
       </c>
-      <c r="C17" s="30">
-        <v>1</v>
+      <c r="C17" s="40">
+        <v>4</v>
       </c>
       <c r="D17" s="27" t="s">
         <v>435</v>
@@ -4537,15 +5217,15 @@
         <v>456</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="35" t="s">
-        <v>503</v>
-      </c>
-      <c r="B18" s="31">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="30" t="s">
+        <v>489</v>
+      </c>
+      <c r="B18" s="38">
         <v>2</v>
       </c>
-      <c r="C18" s="31">
-        <v>2</v>
+      <c r="C18" s="43">
+        <v>3</v>
       </c>
       <c r="D18" t="s">
         <v>436</v>
@@ -4553,17 +5233,16 @@
       <c r="E18" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="F18" s="26"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="35" t="s">
-        <v>503</v>
-      </c>
-      <c r="B19" s="31">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="30" t="s">
+        <v>489</v>
+      </c>
+      <c r="B19" s="38">
         <v>3</v>
       </c>
-      <c r="C19" s="31">
-        <v>3</v>
+      <c r="C19" s="43">
+        <v>2</v>
       </c>
       <c r="D19" t="s">
         <v>439</v>
@@ -4572,15 +5251,15 @@
         <v>457</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="35" t="s">
-        <v>503</v>
-      </c>
-      <c r="B20" s="31">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="30" t="s">
+        <v>489</v>
+      </c>
+      <c r="B20" s="38">
         <v>4</v>
       </c>
-      <c r="C20" s="31">
-        <v>4</v>
+      <c r="C20" s="43">
+        <v>1</v>
       </c>
       <c r="D20" t="s">
         <v>440</v>
@@ -4588,17 +5267,16 @@
       <c r="E20" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="F20" s="26"/>
-      <c r="J20" s="26"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="35" t="s">
-        <v>503</v>
-      </c>
-      <c r="B21" s="31">
+      <c r="H20" s="26"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="30" t="s">
+        <v>489</v>
+      </c>
+      <c r="B21" s="38">
         <v>5</v>
       </c>
-      <c r="C21" s="31">
+      <c r="C21" s="43">
         <v>2.5</v>
       </c>
       <c r="D21" t="s">
@@ -4607,18 +5285,16 @@
       <c r="E21" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="F21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="35" t="s">
-        <v>503</v>
-      </c>
-      <c r="B22" s="31">
+      <c r="H21" s="26"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="30" t="s">
+        <v>489</v>
+      </c>
+      <c r="B22" s="38">
         <v>8</v>
       </c>
-      <c r="C22" s="31">
+      <c r="C22" s="43">
         <v>2.5</v>
       </c>
       <c r="D22" t="s">
@@ -4627,17 +5303,15 @@
       <c r="E22" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="F22" s="26"/>
-      <c r="K22" s="26"/>
-    </row>
-    <row r="23" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="35" t="s">
-        <v>503</v>
-      </c>
-      <c r="B23" s="32">
+    </row>
+    <row r="23" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
+        <v>489</v>
+      </c>
+      <c r="B23" s="39">
         <v>9</v>
       </c>
-      <c r="C23" s="32">
+      <c r="C23" s="41">
         <v>2.5</v>
       </c>
       <c r="D23" s="28" t="s">
@@ -4646,17 +5320,16 @@
       <c r="E23" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="34" t="s">
+      <c r="H23" s="26"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="29" t="s">
         <v>417</v>
       </c>
-      <c r="B24" s="30">
+      <c r="B24" s="37">
         <v>1</v>
       </c>
-      <c r="C24" s="30">
+      <c r="C24" s="40">
         <v>1</v>
       </c>
       <c r="D24" s="27" t="s">
@@ -4665,16 +5338,15 @@
       <c r="E24" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="F24" s="26"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="35" t="s">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="30" t="s">
         <v>417</v>
       </c>
-      <c r="B25" s="31">
+      <c r="B25" s="38">
         <v>2</v>
       </c>
-      <c r="C25" s="31">
+      <c r="C25" s="43">
         <v>2</v>
       </c>
       <c r="D25" t="s">
@@ -4683,18 +5355,16 @@
       <c r="E25" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="F25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="35" t="s">
+      <c r="H25" s="26"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="30" t="s">
         <v>417</v>
       </c>
-      <c r="B26" s="31">
+      <c r="B26" s="38">
         <v>3</v>
       </c>
-      <c r="C26" s="31">
+      <c r="C26" s="43">
         <v>3</v>
       </c>
       <c r="D26" t="s">
@@ -4703,17 +5373,16 @@
       <c r="E26" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="35" t="s">
+      <c r="H26" s="26"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="30" t="s">
         <v>417</v>
       </c>
-      <c r="B27" s="31">
+      <c r="B27" s="38">
         <v>4</v>
       </c>
-      <c r="C27" s="31">
+      <c r="C27" s="43">
         <v>4</v>
       </c>
       <c r="D27" t="s">
@@ -4722,16 +5391,15 @@
       <c r="E27" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="F27" s="26"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="35" t="s">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="30" t="s">
         <v>417</v>
       </c>
-      <c r="B28" s="31">
+      <c r="B28" s="38">
         <v>5</v>
       </c>
-      <c r="C28" s="31">
+      <c r="C28" s="43">
         <v>5</v>
       </c>
       <c r="D28" t="s">
@@ -4740,18 +5408,16 @@
       <c r="E28" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="F28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="35" t="s">
+      <c r="H28" s="26"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="30" t="s">
         <v>417</v>
       </c>
-      <c r="B29" s="31">
+      <c r="B29" s="38">
         <v>6</v>
       </c>
-      <c r="C29" s="31">
+      <c r="C29" s="43">
         <v>6</v>
       </c>
       <c r="D29" t="s">
@@ -4760,17 +5426,16 @@
       <c r="E29" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="35" t="s">
+      <c r="H29" s="26"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="30" t="s">
         <v>417</v>
       </c>
-      <c r="B30" s="31">
+      <c r="B30" s="38">
         <v>7</v>
       </c>
-      <c r="C30" s="31">
+      <c r="C30" s="43">
         <v>7</v>
       </c>
       <c r="D30" t="s">
@@ -4780,14 +5445,14 @@
         <v>459</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="35" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="30" t="s">
         <v>417</v>
       </c>
-      <c r="B31" s="31">
+      <c r="B31" s="38">
         <v>8</v>
       </c>
-      <c r="C31" s="31">
+      <c r="C31" s="43">
         <v>4</v>
       </c>
       <c r="D31" t="s">
@@ -4796,16 +5461,15 @@
       <c r="E31" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="K31" s="26"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="35" t="s">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="30" t="s">
         <v>417</v>
       </c>
-      <c r="B32" s="31">
+      <c r="B32" s="38">
         <v>98</v>
       </c>
-      <c r="C32" s="31">
+      <c r="C32" s="43">
         <v>4</v>
       </c>
       <c r="D32" t="s">
@@ -4814,17 +5478,16 @@
       <c r="E32" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26"/>
-    </row>
-    <row r="33" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="36" t="s">
+      <c r="H32" s="26"/>
+    </row>
+    <row r="33" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="31" t="s">
         <v>417</v>
       </c>
-      <c r="B33" s="32">
+      <c r="B33" s="39">
         <v>99</v>
       </c>
-      <c r="C33" s="32">
+      <c r="C33" s="41">
         <v>4</v>
       </c>
       <c r="D33" s="28" t="s">
@@ -4833,17 +5496,17 @@
       <c r="E33" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="J33" s="26"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="34" t="s">
+      <c r="H33" s="26"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="29" t="s">
         <v>418</v>
       </c>
-      <c r="B34" s="30">
+      <c r="B34" s="37">
         <v>1</v>
       </c>
-      <c r="C34" s="30">
-        <v>1</v>
+      <c r="C34" s="40">
+        <v>5</v>
       </c>
       <c r="D34" s="27" t="s">
         <v>448</v>
@@ -4851,17 +5514,16 @@
       <c r="E34" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="K34" s="26"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="35" t="s">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="30" t="s">
         <v>418</v>
       </c>
-      <c r="B35" s="31">
+      <c r="B35" s="38">
         <v>2</v>
       </c>
-      <c r="C35" s="31">
-        <v>2</v>
+      <c r="C35" s="43">
+        <v>4</v>
       </c>
       <c r="D35" t="s">
         <v>449</v>
@@ -4869,16 +5531,16 @@
       <c r="E35" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="J35" s="26"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="35" t="s">
+      <c r="H35" s="26"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="30" t="s">
         <v>418</v>
       </c>
-      <c r="B36" s="31">
+      <c r="B36" s="38">
         <v>3</v>
       </c>
-      <c r="C36" s="31">
+      <c r="C36" s="43">
         <v>3</v>
       </c>
       <c r="D36" t="s">
@@ -4887,17 +5549,17 @@
       <c r="E36" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="J36" s="26"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="35" t="s">
+      <c r="H36" s="26"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="30" t="s">
         <v>418</v>
       </c>
-      <c r="B37" s="31">
+      <c r="B37" s="38">
         <v>4</v>
       </c>
-      <c r="C37" s="31">
-        <v>4</v>
+      <c r="C37" s="43">
+        <v>2</v>
       </c>
       <c r="D37" t="s">
         <v>450</v>
@@ -4905,17 +5567,17 @@
       <c r="E37" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="J37" s="26"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="35" t="s">
+      <c r="H37" s="26"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="30" t="s">
         <v>418</v>
       </c>
-      <c r="B38" s="31">
+      <c r="B38" s="38">
         <v>5</v>
       </c>
-      <c r="C38" s="31">
-        <v>5</v>
+      <c r="C38" s="43">
+        <v>1</v>
       </c>
       <c r="D38" t="s">
         <v>451</v>
@@ -4923,16 +5585,16 @@
       <c r="E38" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="J38" s="26"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="35" t="s">
+      <c r="H38" s="26"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="30" t="s">
         <v>418</v>
       </c>
-      <c r="B39" s="31">
+      <c r="B39" s="38">
         <v>6</v>
       </c>
-      <c r="C39" s="31">
+      <c r="C39" s="43">
         <v>3</v>
       </c>
       <c r="D39" t="s">
@@ -4941,16 +5603,16 @@
       <c r="E39" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="J39" s="26"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="35" t="s">
+      <c r="H39" s="26"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="30" t="s">
         <v>418</v>
       </c>
-      <c r="B40" s="31">
+      <c r="B40" s="38">
         <v>8</v>
       </c>
-      <c r="C40" s="31">
+      <c r="C40" s="43">
         <v>3</v>
       </c>
       <c r="D40" t="s">
@@ -4959,16 +5621,16 @@
       <c r="E40" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="J40" s="26"/>
-    </row>
-    <row r="41" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="36" t="s">
+      <c r="H40" s="26"/>
+    </row>
+    <row r="41" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="31" t="s">
         <v>418</v>
       </c>
-      <c r="B41" s="32">
+      <c r="B41" s="39">
         <v>9</v>
       </c>
-      <c r="C41" s="32">
+      <c r="C41" s="41">
         <v>3</v>
       </c>
       <c r="D41" t="s">
@@ -4978,386 +5640,2064 @@
         <v>455</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="B42" s="31">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="32" t="s">
+        <v>597</v>
+      </c>
+      <c r="B42" s="53">
         <v>1</v>
       </c>
-      <c r="C42" s="45" t="s">
+      <c r="C42" s="54" t="s">
         <v>473</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="B43" s="31">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="32" t="s">
+        <v>597</v>
+      </c>
+      <c r="B43" s="53">
         <v>2</v>
       </c>
-      <c r="C43" s="45" t="s">
-        <v>474</v>
+      <c r="C43" s="54" t="s">
+        <v>717</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="4"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="B44" s="31">
+      <c r="H43" s="26"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="32" t="s">
+        <v>597</v>
+      </c>
+      <c r="B44" s="53">
         <v>8</v>
       </c>
-      <c r="C44" s="45" t="s">
-        <v>474</v>
+      <c r="C44" s="54" t="s">
+        <v>717</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="4"/>
     </row>
-    <row r="45" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="B45" s="32">
+    <row r="45" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="55" t="s">
+        <v>597</v>
+      </c>
+      <c r="B45" s="56">
         <v>9</v>
       </c>
-      <c r="C45" s="46" t="s">
-        <v>474</v>
+      <c r="C45" s="57" t="s">
+        <v>717</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="4"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="B46" s="30">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="33" t="s">
+        <v>598</v>
+      </c>
+      <c r="B46" s="58">
         <v>1</v>
       </c>
-      <c r="C46" s="47" t="s">
+      <c r="C46" s="59" t="s">
         <v>473</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="4"/>
-      <c r="J46" s="26"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="B47" s="31">
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="32" t="s">
+        <v>598</v>
+      </c>
+      <c r="B47" s="53">
         <v>2</v>
       </c>
-      <c r="C47" s="45" t="s">
-        <v>474</v>
+      <c r="C47" s="54" t="s">
+        <v>717</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="4"/>
-      <c r="J47" s="26"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="B48" s="31">
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="32" t="s">
+        <v>598</v>
+      </c>
+      <c r="B48" s="53">
         <v>8</v>
       </c>
-      <c r="C48" s="45" t="s">
-        <v>474</v>
+      <c r="C48" s="54" t="s">
+        <v>717</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="4"/>
-      <c r="J48" s="26"/>
-    </row>
-    <row r="49" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="B49" s="32">
+    </row>
+    <row r="49" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="55" t="s">
+        <v>598</v>
+      </c>
+      <c r="B49" s="56">
         <v>9</v>
       </c>
-      <c r="C49" s="46" t="s">
-        <v>474</v>
+      <c r="C49" s="57" t="s">
+        <v>717</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="4"/>
-      <c r="J49" s="26"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="B50" s="30">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="33" t="s">
+        <v>599</v>
+      </c>
+      <c r="B50" s="58">
         <v>1</v>
       </c>
-      <c r="C50" s="47" t="s">
+      <c r="C50" s="59" t="s">
         <v>473</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="4"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="B51" s="31">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="32" t="s">
+        <v>599</v>
+      </c>
+      <c r="B51" s="53">
         <v>2</v>
       </c>
-      <c r="C51" s="45" t="s">
-        <v>474</v>
+      <c r="C51" s="54" t="s">
+        <v>717</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="4"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="B52" s="31">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="32" t="s">
+        <v>599</v>
+      </c>
+      <c r="B52" s="53">
         <v>8</v>
       </c>
-      <c r="C52" s="45" t="s">
-        <v>474</v>
+      <c r="C52" s="54" t="s">
+        <v>717</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="4"/>
     </row>
-    <row r="53" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="B53" s="32">
+    <row r="53" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="55" t="s">
+        <v>599</v>
+      </c>
+      <c r="B53" s="56">
         <v>9</v>
       </c>
-      <c r="C53" s="46" t="s">
-        <v>474</v>
+      <c r="C53" s="57" t="s">
+        <v>717</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="4"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="B54" s="30">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="33" t="s">
+        <v>600</v>
+      </c>
+      <c r="B54" s="58">
         <v>1</v>
       </c>
-      <c r="C54" s="47" t="s">
+      <c r="C54" s="59" t="s">
         <v>473</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="4"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="37" t="s">
-        <v>128</v>
-      </c>
-      <c r="B55" s="31">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="32" t="s">
+        <v>600</v>
+      </c>
+      <c r="B55" s="53">
         <v>2</v>
       </c>
-      <c r="C55" s="45" t="s">
-        <v>474</v>
+      <c r="C55" s="54" t="s">
+        <v>717</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="4"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="37" t="s">
-        <v>128</v>
-      </c>
-      <c r="B56" s="31">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="32" t="s">
+        <v>600</v>
+      </c>
+      <c r="B56" s="53">
         <v>8</v>
       </c>
-      <c r="C56" s="45" t="s">
-        <v>474</v>
+      <c r="C56" s="54" t="s">
+        <v>717</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="4"/>
     </row>
-    <row r="57" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="38" t="s">
-        <v>128</v>
-      </c>
-      <c r="B57" s="32">
+    <row r="57" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="55" t="s">
+        <v>600</v>
+      </c>
+      <c r="B57" s="56">
         <v>9</v>
       </c>
-      <c r="C57" s="46" t="s">
-        <v>474</v>
+      <c r="C57" s="57" t="s">
+        <v>717</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="4"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="B58" s="30">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="33" t="s">
+        <v>601</v>
+      </c>
+      <c r="B58" s="58">
         <v>1</v>
       </c>
-      <c r="C58" s="47" t="s">
+      <c r="C58" s="59" t="s">
         <v>473</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="4"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="B59" s="31">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="32" t="s">
+        <v>601</v>
+      </c>
+      <c r="B59" s="53">
         <v>2</v>
       </c>
-      <c r="C59" s="45" t="s">
-        <v>474</v>
+      <c r="C59" s="54" t="s">
+        <v>717</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="4"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="B60" s="31">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="32" t="s">
+        <v>601</v>
+      </c>
+      <c r="B60" s="53">
         <v>8</v>
       </c>
-      <c r="C60" s="45" t="s">
-        <v>474</v>
+      <c r="C60" s="54" t="s">
+        <v>717</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="4"/>
     </row>
-    <row r="61" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="B61" s="32">
+    <row r="61" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="55" t="s">
+        <v>601</v>
+      </c>
+      <c r="B61" s="56">
         <v>9</v>
       </c>
-      <c r="C61" s="46" t="s">
-        <v>474</v>
+      <c r="C61" s="57" t="s">
+        <v>717</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="4"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="B62" s="30">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="48" t="s">
+        <v>354</v>
+      </c>
+      <c r="B62" s="40">
         <v>1</v>
       </c>
-      <c r="C62" s="29" t="s">
-        <v>510</v>
+      <c r="C62" s="42" t="s">
+        <v>495</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="4"/>
     </row>
-    <row r="63" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="B63" s="31">
+    <row r="63" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="49" t="s">
+        <v>354</v>
+      </c>
+      <c r="B63" s="41">
         <v>2</v>
       </c>
-      <c r="C63" s="42" t="s">
-        <v>511</v>
+      <c r="C63" s="44" t="s">
+        <v>496</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="4"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="B64" s="41">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="30" t="s">
+        <v>490</v>
+      </c>
+      <c r="B64" s="37">
         <v>1</v>
       </c>
-      <c r="C64" s="29" t="s">
-        <v>506</v>
+      <c r="C64" s="42" t="s">
+        <v>491</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="4"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="8" t="s">
-        <v>505</v>
-      </c>
-      <c r="B65" s="44">
+      <c r="A65" s="30" t="s">
+        <v>490</v>
+      </c>
+      <c r="B65" s="38">
         <v>2</v>
       </c>
-      <c r="C65" s="33" t="s">
-        <v>507</v>
+      <c r="C65" s="36" t="s">
+        <v>492</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="4"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="8" t="s">
-        <v>505</v>
-      </c>
-      <c r="B66" s="44">
+      <c r="A66" s="30" t="s">
+        <v>490</v>
+      </c>
+      <c r="B66" s="38">
         <v>3</v>
       </c>
-      <c r="C66" s="33" t="s">
-        <v>508</v>
+      <c r="C66" s="36" t="s">
+        <v>493</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="4"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="8" t="s">
-        <v>505</v>
-      </c>
-      <c r="B67" s="44">
+      <c r="A67" s="30" t="s">
+        <v>490</v>
+      </c>
+      <c r="B67" s="38">
         <v>4</v>
       </c>
-      <c r="C67" s="33" t="s">
-        <v>509</v>
+      <c r="C67" s="36" t="s">
+        <v>494</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="4"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="8" t="s">
-        <v>505</v>
-      </c>
-      <c r="B68" s="44">
+      <c r="A68" s="30" t="s">
+        <v>490</v>
+      </c>
+      <c r="B68" s="38">
         <v>5</v>
       </c>
-      <c r="C68" s="33" t="s">
-        <v>509</v>
+      <c r="C68" s="36" t="s">
+        <v>494</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="4"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="8" t="s">
-        <v>505</v>
-      </c>
-      <c r="B69" s="44">
+      <c r="A69" s="30" t="s">
+        <v>490</v>
+      </c>
+      <c r="B69" s="38">
         <v>8</v>
       </c>
-      <c r="C69" s="33" t="s">
-        <v>509</v>
+      <c r="C69" s="36" t="s">
+        <v>494</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="4"/>
     </row>
     <row r="70" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="9" t="s">
-        <v>505</v>
-      </c>
-      <c r="B70" s="43">
+      <c r="A70" s="31" t="s">
+        <v>490</v>
+      </c>
+      <c r="B70" s="39">
         <v>9</v>
       </c>
-      <c r="C70" s="42" t="s">
-        <v>509</v>
+      <c r="C70" s="44" t="s">
+        <v>494</v>
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="6"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="B71" s="37">
+        <v>1</v>
+      </c>
+      <c r="C71" s="40">
+        <v>1</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="30" t="s">
+        <v>374</v>
+      </c>
+      <c r="B72" s="38">
+        <v>2</v>
+      </c>
+      <c r="C72" s="43">
+        <v>1</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="E72" s="4"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="30" t="s">
+        <v>374</v>
+      </c>
+      <c r="B73" s="38">
+        <v>3</v>
+      </c>
+      <c r="C73" s="43">
+        <v>0</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="E73" s="4"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="30" t="s">
+        <v>374</v>
+      </c>
+      <c r="B74" s="38">
+        <v>4</v>
+      </c>
+      <c r="C74" s="43">
+        <v>0</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="E74" s="4"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="30" t="s">
+        <v>374</v>
+      </c>
+      <c r="B75" s="38">
+        <v>5</v>
+      </c>
+      <c r="C75" s="43">
+        <v>0</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="E75" s="4"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="30" t="s">
+        <v>374</v>
+      </c>
+      <c r="B76" s="38">
+        <v>8</v>
+      </c>
+      <c r="C76" s="43">
+        <v>0</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="E76" s="4"/>
+    </row>
+    <row r="77" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="31" t="s">
+        <v>374</v>
+      </c>
+      <c r="B77" s="39">
+        <v>9</v>
+      </c>
+      <c r="C77" s="41">
+        <v>0</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="E77" s="6"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="29" t="s">
+        <v>425</v>
+      </c>
+      <c r="B78" s="37">
+        <v>1</v>
+      </c>
+      <c r="C78" s="40">
+        <v>1</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="E78" s="2"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="30" t="s">
+        <v>425</v>
+      </c>
+      <c r="B79" s="38">
+        <v>2</v>
+      </c>
+      <c r="C79" s="43">
+        <v>1</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="E79" s="4"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="30" t="s">
+        <v>425</v>
+      </c>
+      <c r="B80" s="38">
+        <v>3</v>
+      </c>
+      <c r="C80" s="43">
+        <v>0</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="E80" s="4"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="30" t="s">
+        <v>425</v>
+      </c>
+      <c r="B81" s="38">
+        <v>4</v>
+      </c>
+      <c r="C81" s="43">
+        <v>0</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="E81" s="4"/>
+      <c r="I81" s="35"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" s="30" t="s">
+        <v>425</v>
+      </c>
+      <c r="B82" s="38">
+        <v>5</v>
+      </c>
+      <c r="C82" s="43">
+        <v>0</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="E82" s="4"/>
+      <c r="I82" s="35"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" s="30" t="s">
+        <v>425</v>
+      </c>
+      <c r="B83" s="38">
+        <v>8</v>
+      </c>
+      <c r="C83" s="43">
+        <v>0</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="E83" s="4"/>
+      <c r="I83" s="35"/>
+    </row>
+    <row r="84" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="31" t="s">
+        <v>425</v>
+      </c>
+      <c r="B84" s="39">
+        <v>9</v>
+      </c>
+      <c r="C84" s="43">
+        <v>0</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="E84" s="6"/>
+      <c r="I84" s="35"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" s="34" t="s">
+        <v>716</v>
+      </c>
+      <c r="B85" s="37">
+        <v>1</v>
+      </c>
+      <c r="C85" s="40" t="s">
+        <v>634</v>
+      </c>
+      <c r="D85" s="27" t="s">
+        <v>715</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" s="60"/>
+      <c r="I85" s="35"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="34" t="s">
+        <v>716</v>
+      </c>
+      <c r="B86" s="38">
+        <v>2</v>
+      </c>
+      <c r="C86" s="43" t="s">
+        <v>634</v>
+      </c>
+      <c r="D86" t="s">
+        <v>633</v>
+      </c>
+      <c r="E86" s="4"/>
+      <c r="I86" s="35"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" s="34" t="s">
+        <v>716</v>
+      </c>
+      <c r="B87" s="38">
+        <v>3</v>
+      </c>
+      <c r="C87" s="43" t="s">
+        <v>634</v>
+      </c>
+      <c r="D87" t="s">
+        <v>617</v>
+      </c>
+      <c r="E87" s="4"/>
+      <c r="I87" s="35"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" s="34" t="s">
+        <v>716</v>
+      </c>
+      <c r="B88" s="38">
+        <v>4</v>
+      </c>
+      <c r="C88" s="43" t="s">
+        <v>635</v>
+      </c>
+      <c r="D88" t="s">
+        <v>618</v>
+      </c>
+      <c r="E88" s="4"/>
+      <c r="I88" s="35"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" s="34" t="s">
+        <v>716</v>
+      </c>
+      <c r="B89" s="38">
+        <v>5</v>
+      </c>
+      <c r="C89" s="43" t="s">
+        <v>635</v>
+      </c>
+      <c r="D89" t="s">
+        <v>619</v>
+      </c>
+      <c r="E89" s="4"/>
+      <c r="I89" s="35"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" s="34" t="s">
+        <v>716</v>
+      </c>
+      <c r="B90" s="38">
+        <v>6</v>
+      </c>
+      <c r="C90" s="43" t="s">
+        <v>635</v>
+      </c>
+      <c r="D90" t="s">
+        <v>620</v>
+      </c>
+      <c r="E90" s="4"/>
+      <c r="I90" s="35"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" s="34" t="s">
+        <v>716</v>
+      </c>
+      <c r="B91" s="38">
+        <v>7</v>
+      </c>
+      <c r="C91" s="43" t="s">
+        <v>636</v>
+      </c>
+      <c r="D91" t="s">
+        <v>621</v>
+      </c>
+      <c r="E91" s="4"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" s="34" t="s">
+        <v>716</v>
+      </c>
+      <c r="B92" s="38">
+        <v>8</v>
+      </c>
+      <c r="C92" s="43" t="s">
+        <v>636</v>
+      </c>
+      <c r="D92" t="s">
+        <v>622</v>
+      </c>
+      <c r="E92" s="4"/>
+      <c r="I92" s="35"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" s="34" t="s">
+        <v>716</v>
+      </c>
+      <c r="B93" s="38">
+        <v>9</v>
+      </c>
+      <c r="C93" s="43" t="s">
+        <v>636</v>
+      </c>
+      <c r="D93" t="s">
+        <v>623</v>
+      </c>
+      <c r="E93" s="4"/>
+      <c r="I93" s="35"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" s="34" t="s">
+        <v>716</v>
+      </c>
+      <c r="B94" s="38">
+        <v>10</v>
+      </c>
+      <c r="C94" s="43" t="s">
+        <v>714</v>
+      </c>
+      <c r="D94" t="s">
+        <v>624</v>
+      </c>
+      <c r="E94" s="4"/>
+      <c r="I94" s="35"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" s="34" t="s">
+        <v>716</v>
+      </c>
+      <c r="B95" s="38">
+        <v>11</v>
+      </c>
+      <c r="C95" s="43" t="s">
+        <v>714</v>
+      </c>
+      <c r="D95" t="s">
+        <v>625</v>
+      </c>
+      <c r="E95" s="4"/>
+      <c r="I95" s="35"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" s="34" t="s">
+        <v>716</v>
+      </c>
+      <c r="B96" s="38">
+        <v>12</v>
+      </c>
+      <c r="C96" s="43" t="s">
+        <v>714</v>
+      </c>
+      <c r="D96" t="s">
+        <v>626</v>
+      </c>
+      <c r="E96" s="4"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" s="34" t="s">
+        <v>716</v>
+      </c>
+      <c r="B97" s="38">
+        <v>13</v>
+      </c>
+      <c r="C97" s="43" t="s">
+        <v>637</v>
+      </c>
+      <c r="D97" t="s">
+        <v>627</v>
+      </c>
+      <c r="E97" s="4"/>
+      <c r="I97" s="35"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" s="34" t="s">
+        <v>716</v>
+      </c>
+      <c r="B98" s="38">
+        <v>14</v>
+      </c>
+      <c r="C98" s="43" t="s">
+        <v>637</v>
+      </c>
+      <c r="D98" t="s">
+        <v>628</v>
+      </c>
+      <c r="E98" s="4"/>
+      <c r="I98" s="35"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99" s="34" t="s">
+        <v>716</v>
+      </c>
+      <c r="B99" s="38">
+        <v>15</v>
+      </c>
+      <c r="C99" s="43" t="s">
+        <v>637</v>
+      </c>
+      <c r="D99" t="s">
+        <v>713</v>
+      </c>
+      <c r="E99" s="4"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100" s="34" t="s">
+        <v>716</v>
+      </c>
+      <c r="B100" s="38">
+        <v>16</v>
+      </c>
+      <c r="C100" s="43" t="s">
+        <v>637</v>
+      </c>
+      <c r="D100" t="s">
+        <v>629</v>
+      </c>
+      <c r="E100" s="4"/>
+      <c r="I100" s="35"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101" s="34" t="s">
+        <v>716</v>
+      </c>
+      <c r="B101" s="61">
+        <v>97</v>
+      </c>
+      <c r="C101" s="43" t="s">
+        <v>638</v>
+      </c>
+      <c r="D101" t="s">
+        <v>630</v>
+      </c>
+      <c r="E101" s="4"/>
+      <c r="I101" s="35"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102" s="34" t="s">
+        <v>716</v>
+      </c>
+      <c r="B102" s="61">
+        <v>98</v>
+      </c>
+      <c r="C102" s="43" t="s">
+        <v>638</v>
+      </c>
+      <c r="D102" t="s">
+        <v>631</v>
+      </c>
+      <c r="E102" s="4"/>
+      <c r="I102" s="35"/>
+    </row>
+    <row r="103" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="34" t="s">
+        <v>716</v>
+      </c>
+      <c r="B103" s="62">
+        <v>99</v>
+      </c>
+      <c r="C103" s="43" t="s">
+        <v>638</v>
+      </c>
+      <c r="D103" t="s">
+        <v>632</v>
+      </c>
+      <c r="E103" s="4"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104" s="50" t="s">
+        <v>357</v>
+      </c>
+      <c r="B104" s="37">
+        <v>1</v>
+      </c>
+      <c r="C104" s="40" t="s">
+        <v>639</v>
+      </c>
+      <c r="D104" s="27"/>
+      <c r="E104" s="2"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105" s="51" t="s">
+        <v>357</v>
+      </c>
+      <c r="B105" s="38">
+        <v>2</v>
+      </c>
+      <c r="C105" s="43" t="s">
+        <v>640</v>
+      </c>
+      <c r="E105" s="4"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106" s="51" t="s">
+        <v>357</v>
+      </c>
+      <c r="B106" s="38">
+        <v>3</v>
+      </c>
+      <c r="C106" s="43" t="s">
+        <v>641</v>
+      </c>
+      <c r="E106" s="4"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107" s="51" t="s">
+        <v>357</v>
+      </c>
+      <c r="B107" s="38">
+        <v>4</v>
+      </c>
+      <c r="C107" s="43" t="s">
+        <v>642</v>
+      </c>
+      <c r="E107" s="4"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108" s="51" t="s">
+        <v>357</v>
+      </c>
+      <c r="B108" s="38">
+        <v>5</v>
+      </c>
+      <c r="C108" s="43" t="s">
+        <v>643</v>
+      </c>
+      <c r="E108" s="4"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109" s="51" t="s">
+        <v>357</v>
+      </c>
+      <c r="B109" s="38">
+        <v>6</v>
+      </c>
+      <c r="C109" s="43" t="s">
+        <v>644</v>
+      </c>
+      <c r="E109" s="4"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110" s="51" t="s">
+        <v>357</v>
+      </c>
+      <c r="B110" s="38">
+        <v>8</v>
+      </c>
+      <c r="C110" s="43" t="s">
+        <v>638</v>
+      </c>
+      <c r="E110" s="4"/>
+    </row>
+    <row r="111" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="51" t="s">
+        <v>357</v>
+      </c>
+      <c r="B111" s="39">
+        <v>9</v>
+      </c>
+      <c r="C111" s="41" t="s">
+        <v>638</v>
+      </c>
+      <c r="D111" s="28"/>
+      <c r="E111" s="6"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A112" s="50" t="s">
+        <v>356</v>
+      </c>
+      <c r="B112" s="37">
+        <v>1</v>
+      </c>
+      <c r="C112" s="40" t="s">
+        <v>645</v>
+      </c>
+      <c r="D112" s="27"/>
+      <c r="E112" s="2"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" s="51" t="s">
+        <v>356</v>
+      </c>
+      <c r="B113" s="38">
+        <v>2</v>
+      </c>
+      <c r="C113" s="43" t="s">
+        <v>646</v>
+      </c>
+      <c r="E113" s="4"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" s="51" t="s">
+        <v>356</v>
+      </c>
+      <c r="B114" s="38">
+        <v>3</v>
+      </c>
+      <c r="C114" s="43" t="s">
+        <v>647</v>
+      </c>
+      <c r="E114" s="4"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" s="51" t="s">
+        <v>356</v>
+      </c>
+      <c r="B115" s="38">
+        <v>4</v>
+      </c>
+      <c r="C115" s="43" t="s">
+        <v>648</v>
+      </c>
+      <c r="E115" s="4"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" s="51" t="s">
+        <v>356</v>
+      </c>
+      <c r="B116" s="38">
+        <v>5</v>
+      </c>
+      <c r="C116" s="43" t="s">
+        <v>649</v>
+      </c>
+      <c r="E116" s="4"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" s="51" t="s">
+        <v>356</v>
+      </c>
+      <c r="B117" s="38">
+        <v>6</v>
+      </c>
+      <c r="C117" s="43" t="s">
+        <v>650</v>
+      </c>
+      <c r="E117" s="4"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" s="51" t="s">
+        <v>356</v>
+      </c>
+      <c r="B118" s="38">
+        <v>8</v>
+      </c>
+      <c r="C118" s="43" t="s">
+        <v>638</v>
+      </c>
+      <c r="E118" s="4"/>
+    </row>
+    <row r="119" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="52" t="s">
+        <v>356</v>
+      </c>
+      <c r="B119" s="39">
+        <v>9</v>
+      </c>
+      <c r="C119" s="41" t="s">
+        <v>638</v>
+      </c>
+      <c r="D119" s="28"/>
+      <c r="E119" s="6"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="B120" s="37">
+        <v>1</v>
+      </c>
+      <c r="C120" s="43" t="s">
+        <v>651</v>
+      </c>
+      <c r="E120" s="4"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="B121" s="38">
+        <v>2</v>
+      </c>
+      <c r="C121" s="43" t="s">
+        <v>652</v>
+      </c>
+      <c r="E121" s="4"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="B122" s="38">
+        <v>3</v>
+      </c>
+      <c r="C122" s="43" t="s">
+        <v>653</v>
+      </c>
+      <c r="E122" s="4"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="B123" s="38">
+        <v>4</v>
+      </c>
+      <c r="C123" s="43" t="s">
+        <v>654</v>
+      </c>
+      <c r="E123" s="4"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="B124" s="38">
+        <v>5</v>
+      </c>
+      <c r="C124" s="43" t="s">
+        <v>655</v>
+      </c>
+      <c r="E124" s="4"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="B125" s="38">
+        <v>6</v>
+      </c>
+      <c r="C125" s="43" t="s">
+        <v>656</v>
+      </c>
+      <c r="E125" s="4"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="B126" s="38">
+        <v>7</v>
+      </c>
+      <c r="C126" s="43" t="s">
+        <v>494</v>
+      </c>
+      <c r="E126" s="4"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="B127" s="38">
+        <v>8</v>
+      </c>
+      <c r="C127" s="43" t="s">
+        <v>657</v>
+      </c>
+      <c r="E127" s="4"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="B128" s="38">
+        <v>98</v>
+      </c>
+      <c r="C128" s="43" t="s">
+        <v>638</v>
+      </c>
+      <c r="E128" s="4"/>
+    </row>
+    <row r="129" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="31" t="s">
+        <v>355</v>
+      </c>
+      <c r="B129" s="39">
+        <v>99</v>
+      </c>
+      <c r="C129" s="41" t="s">
+        <v>638</v>
+      </c>
+      <c r="D129" s="28"/>
+      <c r="E129" s="6"/>
+    </row>
+    <row r="130" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="29" t="s">
+        <v>712</v>
+      </c>
+      <c r="B130" s="37">
+        <v>1</v>
+      </c>
+      <c r="C130" s="45" t="s">
+        <v>687</v>
+      </c>
+      <c r="D130" s="7" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="29" t="s">
+        <v>712</v>
+      </c>
+      <c r="B131" s="38">
+        <v>2</v>
+      </c>
+      <c r="C131" s="46" t="s">
+        <v>698</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="29" t="s">
+        <v>712</v>
+      </c>
+      <c r="B132" s="38">
+        <v>4</v>
+      </c>
+      <c r="C132" s="46" t="s">
+        <v>698</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="29" t="s">
+        <v>712</v>
+      </c>
+      <c r="B133" s="38">
+        <v>5</v>
+      </c>
+      <c r="C133" s="46" t="s">
+        <v>687</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="29" t="s">
+        <v>712</v>
+      </c>
+      <c r="B134" s="38">
+        <v>6</v>
+      </c>
+      <c r="C134" s="46" t="s">
+        <v>698</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="29" t="s">
+        <v>712</v>
+      </c>
+      <c r="B135" s="38">
+        <v>8</v>
+      </c>
+      <c r="C135" s="46" t="s">
+        <v>698</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="29" t="s">
+        <v>712</v>
+      </c>
+      <c r="B136" s="38">
+        <v>9</v>
+      </c>
+      <c r="C136" s="46" t="s">
+        <v>710</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="29" t="s">
+        <v>712</v>
+      </c>
+      <c r="B137" s="38">
+        <v>10</v>
+      </c>
+      <c r="C137" s="46" t="s">
+        <v>710</v>
+      </c>
+      <c r="D137" s="8" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="29" t="s">
+        <v>712</v>
+      </c>
+      <c r="B138" s="38">
+        <v>11</v>
+      </c>
+      <c r="C138" s="46" t="s">
+        <v>710</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="29" t="s">
+        <v>712</v>
+      </c>
+      <c r="B139" s="38">
+        <v>12</v>
+      </c>
+      <c r="C139" s="46" t="s">
+        <v>687</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="29" t="s">
+        <v>712</v>
+      </c>
+      <c r="B140" s="38">
+        <v>13</v>
+      </c>
+      <c r="C140" s="46" t="s">
+        <v>687</v>
+      </c>
+      <c r="D140" s="8" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="29" t="s">
+        <v>712</v>
+      </c>
+      <c r="B141" s="38">
+        <v>15</v>
+      </c>
+      <c r="C141" s="46" t="s">
+        <v>698</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="29" t="s">
+        <v>712</v>
+      </c>
+      <c r="B142" s="38">
+        <v>16</v>
+      </c>
+      <c r="C142" s="46" t="s">
+        <v>698</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="29" t="s">
+        <v>712</v>
+      </c>
+      <c r="B143" s="38">
+        <v>17</v>
+      </c>
+      <c r="C143" s="46" t="s">
+        <v>711</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="29" t="s">
+        <v>712</v>
+      </c>
+      <c r="B144" s="38">
+        <v>18</v>
+      </c>
+      <c r="C144" s="46" t="s">
+        <v>711</v>
+      </c>
+      <c r="D144" s="8" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="29" t="s">
+        <v>712</v>
+      </c>
+      <c r="B145" s="38">
+        <v>19</v>
+      </c>
+      <c r="C145" s="46" t="s">
+        <v>711</v>
+      </c>
+      <c r="D145" s="8" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="29" t="s">
+        <v>712</v>
+      </c>
+      <c r="B146" s="38">
+        <v>20</v>
+      </c>
+      <c r="C146" s="46" t="s">
+        <v>711</v>
+      </c>
+      <c r="D146" s="8" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="29" t="s">
+        <v>712</v>
+      </c>
+      <c r="B147" s="38">
+        <v>21</v>
+      </c>
+      <c r="C147" s="46" t="s">
+        <v>687</v>
+      </c>
+      <c r="D147" s="8" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="29" t="s">
+        <v>712</v>
+      </c>
+      <c r="B148" s="38">
+        <v>22</v>
+      </c>
+      <c r="C148" s="46" t="s">
+        <v>687</v>
+      </c>
+      <c r="D148" s="8" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="29" t="s">
+        <v>712</v>
+      </c>
+      <c r="B149" s="38">
+        <v>23</v>
+      </c>
+      <c r="C149" s="46" t="s">
+        <v>710</v>
+      </c>
+      <c r="D149" s="8" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="29" t="s">
+        <v>712</v>
+      </c>
+      <c r="B150" s="38">
+        <v>24</v>
+      </c>
+      <c r="C150" s="46" t="s">
+        <v>710</v>
+      </c>
+      <c r="D150" s="8" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="29" t="s">
+        <v>712</v>
+      </c>
+      <c r="B151" s="38">
+        <v>25</v>
+      </c>
+      <c r="C151" s="46" t="s">
+        <v>710</v>
+      </c>
+      <c r="D151" s="8" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="29" t="s">
+        <v>712</v>
+      </c>
+      <c r="B152" s="38">
+        <v>26</v>
+      </c>
+      <c r="C152" s="46" t="s">
+        <v>711</v>
+      </c>
+      <c r="D152" s="8" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="29" t="s">
+        <v>712</v>
+      </c>
+      <c r="B153" s="38">
+        <v>27</v>
+      </c>
+      <c r="C153" s="46" t="s">
+        <v>711</v>
+      </c>
+      <c r="D153" s="8" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="29" t="s">
+        <v>712</v>
+      </c>
+      <c r="B154" s="38">
+        <v>28</v>
+      </c>
+      <c r="C154" s="46" t="s">
+        <v>687</v>
+      </c>
+      <c r="D154" s="8" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="29" t="s">
+        <v>712</v>
+      </c>
+      <c r="B155" s="38">
+        <v>29</v>
+      </c>
+      <c r="C155" s="46" t="s">
+        <v>711</v>
+      </c>
+      <c r="D155" s="8" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="29" t="s">
+        <v>712</v>
+      </c>
+      <c r="B156" s="38">
+        <v>30</v>
+      </c>
+      <c r="C156" s="46" t="s">
+        <v>698</v>
+      </c>
+      <c r="D156" s="8" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="29" t="s">
+        <v>712</v>
+      </c>
+      <c r="B157" s="38">
+        <v>31</v>
+      </c>
+      <c r="C157" s="46" t="s">
+        <v>711</v>
+      </c>
+      <c r="D157" s="8" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="29" t="s">
+        <v>712</v>
+      </c>
+      <c r="B158" s="38">
+        <v>32</v>
+      </c>
+      <c r="C158" s="46" t="s">
+        <v>698</v>
+      </c>
+      <c r="D158" s="8" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="29" t="s">
+        <v>712</v>
+      </c>
+      <c r="B159" s="38">
+        <v>33</v>
+      </c>
+      <c r="C159" s="46" t="s">
+        <v>710</v>
+      </c>
+      <c r="D159" s="8" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="29" t="s">
+        <v>712</v>
+      </c>
+      <c r="B160" s="38">
+        <v>34</v>
+      </c>
+      <c r="C160" s="46" t="s">
+        <v>710</v>
+      </c>
+      <c r="D160" s="8" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="29" t="s">
+        <v>712</v>
+      </c>
+      <c r="B161" s="38">
+        <v>35</v>
+      </c>
+      <c r="C161" s="46" t="s">
+        <v>698</v>
+      </c>
+      <c r="D161" s="8" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="29" t="s">
+        <v>712</v>
+      </c>
+      <c r="B162" s="38">
+        <v>36</v>
+      </c>
+      <c r="C162" s="46" t="s">
+        <v>710</v>
+      </c>
+      <c r="D162" s="8" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="29" t="s">
+        <v>712</v>
+      </c>
+      <c r="B163" s="38">
+        <v>37</v>
+      </c>
+      <c r="C163" s="46" t="s">
+        <v>687</v>
+      </c>
+      <c r="D163" s="8" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="29" t="s">
+        <v>712</v>
+      </c>
+      <c r="B164" s="38">
+        <v>38</v>
+      </c>
+      <c r="C164" s="46" t="s">
+        <v>711</v>
+      </c>
+      <c r="D164" s="8" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="29" t="s">
+        <v>712</v>
+      </c>
+      <c r="B165" s="38">
+        <v>39</v>
+      </c>
+      <c r="C165" s="46" t="s">
+        <v>711</v>
+      </c>
+      <c r="D165" s="8" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="29" t="s">
+        <v>712</v>
+      </c>
+      <c r="B166" s="38">
+        <v>40</v>
+      </c>
+      <c r="C166" s="46" t="s">
+        <v>687</v>
+      </c>
+      <c r="D166" s="8" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="29" t="s">
+        <v>712</v>
+      </c>
+      <c r="B167" s="38">
+        <v>41</v>
+      </c>
+      <c r="C167" s="46" t="s">
+        <v>698</v>
+      </c>
+      <c r="D167" s="8" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="29" t="s">
+        <v>712</v>
+      </c>
+      <c r="B168" s="38">
+        <v>42</v>
+      </c>
+      <c r="C168" s="46" t="s">
+        <v>710</v>
+      </c>
+      <c r="D168" s="8" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="29" t="s">
+        <v>712</v>
+      </c>
+      <c r="B169" s="38">
+        <v>44</v>
+      </c>
+      <c r="C169" s="46" t="s">
+        <v>710</v>
+      </c>
+      <c r="D169" s="8" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="29" t="s">
+        <v>712</v>
+      </c>
+      <c r="B170" s="38">
+        <v>45</v>
+      </c>
+      <c r="C170" s="46" t="s">
+        <v>687</v>
+      </c>
+      <c r="D170" s="8" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="29" t="s">
+        <v>712</v>
+      </c>
+      <c r="B171" s="38">
+        <v>46</v>
+      </c>
+      <c r="C171" s="46" t="s">
+        <v>711</v>
+      </c>
+      <c r="D171" s="8" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="29" t="s">
+        <v>712</v>
+      </c>
+      <c r="B172" s="38">
+        <v>47</v>
+      </c>
+      <c r="C172" s="46" t="s">
+        <v>687</v>
+      </c>
+      <c r="D172" s="8" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="29" t="s">
+        <v>712</v>
+      </c>
+      <c r="B173" s="38">
+        <v>48</v>
+      </c>
+      <c r="C173" s="46" t="s">
+        <v>687</v>
+      </c>
+      <c r="D173" s="8" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="29" t="s">
+        <v>712</v>
+      </c>
+      <c r="B174" s="38">
+        <v>49</v>
+      </c>
+      <c r="C174" s="46" t="s">
+        <v>698</v>
+      </c>
+      <c r="D174" s="8" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="29" t="s">
+        <v>712</v>
+      </c>
+      <c r="B175" s="38">
+        <v>50</v>
+      </c>
+      <c r="C175" s="46" t="s">
+        <v>710</v>
+      </c>
+      <c r="D175" s="8" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="29" t="s">
+        <v>712</v>
+      </c>
+      <c r="B176" s="38">
+        <v>51</v>
+      </c>
+      <c r="C176" s="46" t="s">
+        <v>687</v>
+      </c>
+      <c r="D176" s="8" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="29" t="s">
+        <v>712</v>
+      </c>
+      <c r="B177" s="38">
+        <v>53</v>
+      </c>
+      <c r="C177" s="46" t="s">
+        <v>698</v>
+      </c>
+      <c r="D177" s="8" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="29" t="s">
+        <v>712</v>
+      </c>
+      <c r="B178" s="38">
+        <v>54</v>
+      </c>
+      <c r="C178" s="46" t="s">
+        <v>687</v>
+      </c>
+      <c r="D178" s="8" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="29" t="s">
+        <v>712</v>
+      </c>
+      <c r="B179" s="38">
+        <v>55</v>
+      </c>
+      <c r="C179" s="46" t="s">
+        <v>711</v>
+      </c>
+      <c r="D179" s="8" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="29" t="s">
+        <v>712</v>
+      </c>
+      <c r="B180" s="39">
+        <v>56</v>
+      </c>
+      <c r="C180" s="47" t="s">
+        <v>698</v>
+      </c>
+      <c r="D180" s="9" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181" s="63" t="s">
+        <v>358</v>
+      </c>
+      <c r="B181" s="37">
+        <v>1</v>
+      </c>
+      <c r="C181" s="37" t="s">
+        <v>719</v>
+      </c>
+      <c r="D181" s="7"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182" s="64" t="s">
+        <v>358</v>
+      </c>
+      <c r="B182" s="38">
+        <v>2</v>
+      </c>
+      <c r="C182" s="38" t="s">
+        <v>720</v>
+      </c>
+      <c r="D182" s="8"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183" s="64" t="s">
+        <v>358</v>
+      </c>
+      <c r="B183" s="38">
+        <v>3</v>
+      </c>
+      <c r="C183" s="38" t="s">
+        <v>718</v>
+      </c>
+      <c r="D183" s="8"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184" s="64" t="s">
+        <v>358</v>
+      </c>
+      <c r="B184" s="38">
+        <v>4</v>
+      </c>
+      <c r="C184" s="38" t="s">
+        <v>721</v>
+      </c>
+      <c r="D184" s="8"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185" s="64" t="s">
+        <v>358</v>
+      </c>
+      <c r="B185" s="38">
+        <v>5</v>
+      </c>
+      <c r="C185" s="38" t="s">
+        <v>722</v>
+      </c>
+      <c r="D185" s="8"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186" s="64" t="s">
+        <v>358</v>
+      </c>
+      <c r="B186" s="38">
+        <v>6</v>
+      </c>
+      <c r="C186" s="38" t="s">
+        <v>723</v>
+      </c>
+      <c r="D186" s="8"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187" s="64" t="s">
+        <v>358</v>
+      </c>
+      <c r="B187" s="38">
+        <v>7</v>
+      </c>
+      <c r="C187" s="38" t="s">
+        <v>724</v>
+      </c>
+      <c r="D187" s="8"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188" s="64" t="s">
+        <v>358</v>
+      </c>
+      <c r="B188" s="38">
+        <v>8</v>
+      </c>
+      <c r="C188" s="38" t="s">
+        <v>725</v>
+      </c>
+      <c r="D188" s="8"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189" s="64" t="s">
+        <v>358</v>
+      </c>
+      <c r="B189" s="38">
+        <v>9</v>
+      </c>
+      <c r="C189" s="38" t="s">
+        <v>726</v>
+      </c>
+      <c r="D189" s="8"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190" s="64" t="s">
+        <v>358</v>
+      </c>
+      <c r="B190" s="38">
+        <v>98</v>
+      </c>
+      <c r="C190" s="38" t="s">
+        <v>726</v>
+      </c>
+      <c r="D190" s="8"/>
+    </row>
+    <row r="191" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="65" t="s">
+        <v>358</v>
+      </c>
+      <c r="B191" s="39">
+        <v>99</v>
+      </c>
+      <c r="C191" s="39" t="s">
+        <v>726</v>
+      </c>
+      <c r="D191" s="9"/>
+    </row>
+    <row r="1048576" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1048576" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5369,8 +7709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F18B8B-FA6E-8A45-B7D1-AE459E110F66}">
   <dimension ref="A1:B149"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" zoomScale="110" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+    <sheetView topLeftCell="A99" zoomScale="110" workbookViewId="0">
+      <selection activeCell="A117" sqref="A117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6013,7 +8353,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="17" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B80" s="18">
         <v>9</v>
@@ -6021,7 +8361,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="19" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B81" s="20">
         <v>9</v>
@@ -6029,7 +8369,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="19" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B82" s="20">
         <v>5</v>
@@ -6037,7 +8377,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="19" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B83" s="20">
         <v>9</v>
@@ -6045,7 +8385,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="19" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B84" s="20">
         <v>9</v>
@@ -6053,7 +8393,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="19" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B85" s="20">
         <v>5</v>
@@ -6061,7 +8401,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="19" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B86" s="20">
         <v>5</v>
@@ -6069,7 +8409,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B87" s="20">
         <v>9</v>
@@ -6077,7 +8417,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="19" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B88" s="20">
         <v>9</v>
@@ -6085,7 +8425,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="19" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B89" s="20">
         <v>9</v>
@@ -6093,7 +8433,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="19" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B90" s="20">
         <v>5</v>
@@ -6101,7 +8441,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="19" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B91" s="20">
         <v>5</v>
@@ -6109,7 +8449,7 @@
     </row>
     <row r="92" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="21" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B92" s="22">
         <v>9</v>

--- a/01-data/column_rename_mapping.xlsx
+++ b/01-data/column_rename_mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danramirez/mbs-structural-equation-modeling/01-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED2C0CB-06DB-0946-841E-E184BD16BD90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95BAA94-864A-744F-A682-BC394C549FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" activeTab="1" xr2:uid="{05942F46-CA0F-F744-9F7B-FB5E37380A0B}"/>
   </bookViews>
@@ -2545,7 +2545,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2644,24 +2644,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2708,6 +2690,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4914,15 +4923,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE7EF21-2F33-1340-9D4E-5B996CEF251E}">
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A185" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A190" sqref="A190"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A35" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.33203125" style="34" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.6640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="65" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="46.5" style="34" bestFit="1" customWidth="1"/>
@@ -4935,7 +4944,7 @@
       <c r="B1" s="36" t="s">
         <v>426</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="60" t="s">
         <v>462</v>
       </c>
       <c r="D1" s="27" t="s">
@@ -4952,8 +4961,8 @@
       <c r="B2" s="37">
         <v>1</v>
       </c>
-      <c r="C2" s="40">
-        <v>5</v>
+      <c r="C2" s="61">
+        <v>1</v>
       </c>
       <c r="D2" s="27" t="s">
         <v>427</v>
@@ -4969,8 +4978,8 @@
       <c r="B3" s="38">
         <v>2</v>
       </c>
-      <c r="C3" s="43">
-        <v>4</v>
+      <c r="C3" s="62">
+        <v>2</v>
       </c>
       <c r="D3" t="s">
         <v>438</v>
@@ -4986,7 +4995,7 @@
       <c r="B4" s="38">
         <v>3</v>
       </c>
-      <c r="C4" s="43">
+      <c r="C4" s="62">
         <v>3</v>
       </c>
       <c r="D4" t="s">
@@ -5003,8 +5012,8 @@
       <c r="B5" s="38">
         <v>4</v>
       </c>
-      <c r="C5" s="43">
-        <v>2</v>
+      <c r="C5" s="62">
+        <v>4</v>
       </c>
       <c r="D5" t="s">
         <v>428</v>
@@ -5020,8 +5029,8 @@
       <c r="B6" s="38">
         <v>5</v>
       </c>
-      <c r="C6" s="43">
-        <v>1</v>
+      <c r="C6" s="62">
+        <v>5</v>
       </c>
       <c r="D6" t="s">
         <v>429</v>
@@ -5037,8 +5046,8 @@
       <c r="B7" s="38">
         <v>6</v>
       </c>
-      <c r="C7" s="43">
-        <v>3</v>
+      <c r="C7" s="62">
+        <v>2.5</v>
       </c>
       <c r="D7" t="s">
         <v>430</v>
@@ -5054,8 +5063,8 @@
       <c r="B8" s="38">
         <v>8</v>
       </c>
-      <c r="C8" s="43">
-        <v>3</v>
+      <c r="C8" s="62">
+        <v>2.5</v>
       </c>
       <c r="D8" t="s">
         <v>430</v>
@@ -5071,8 +5080,8 @@
       <c r="B9" s="39">
         <v>9</v>
       </c>
-      <c r="C9" s="41">
-        <v>3</v>
+      <c r="C9" s="62">
+        <v>2.5</v>
       </c>
       <c r="D9" s="28" t="s">
         <v>430</v>
@@ -5088,8 +5097,8 @@
       <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" s="40">
-        <v>4</v>
+      <c r="C10" s="61">
+        <v>5</v>
       </c>
       <c r="D10" s="27" t="s">
         <v>431</v>
@@ -5105,8 +5114,8 @@
       <c r="B11" s="38">
         <v>2</v>
       </c>
-      <c r="C11" s="43">
-        <v>3</v>
+      <c r="C11" s="62">
+        <v>4</v>
       </c>
       <c r="D11" t="s">
         <v>432</v>
@@ -5122,8 +5131,8 @@
       <c r="B12" s="38">
         <v>3</v>
       </c>
-      <c r="C12" s="43">
-        <v>2</v>
+      <c r="C12" s="62">
+        <v>3</v>
       </c>
       <c r="D12" t="s">
         <v>433</v>
@@ -5139,8 +5148,8 @@
       <c r="B13" s="38">
         <v>4</v>
       </c>
-      <c r="C13" s="43">
-        <v>1</v>
+      <c r="C13" s="62">
+        <v>2</v>
       </c>
       <c r="D13" t="s">
         <v>434</v>
@@ -5156,7 +5165,7 @@
       <c r="B14" s="38">
         <v>5</v>
       </c>
-      <c r="C14" s="43">
+      <c r="C14" s="62">
         <v>2.5</v>
       </c>
       <c r="D14" t="s">
@@ -5173,7 +5182,7 @@
       <c r="B15" s="38">
         <v>8</v>
       </c>
-      <c r="C15" s="43">
+      <c r="C15" s="62">
         <v>2.5</v>
       </c>
       <c r="D15" t="s">
@@ -5190,7 +5199,7 @@
       <c r="B16" s="39">
         <v>9</v>
       </c>
-      <c r="C16" s="41">
+      <c r="C16" s="62">
         <v>2.5</v>
       </c>
       <c r="D16" s="28" t="s">
@@ -5207,8 +5216,8 @@
       <c r="B17" s="37">
         <v>1</v>
       </c>
-      <c r="C17" s="40">
-        <v>4</v>
+      <c r="C17" s="52">
+        <v>5</v>
       </c>
       <c r="D17" s="27" t="s">
         <v>435</v>
@@ -5224,8 +5233,8 @@
       <c r="B18" s="38">
         <v>2</v>
       </c>
-      <c r="C18" s="43">
-        <v>3</v>
+      <c r="C18" s="47">
+        <v>4</v>
       </c>
       <c r="D18" t="s">
         <v>436</v>
@@ -5241,8 +5250,8 @@
       <c r="B19" s="38">
         <v>3</v>
       </c>
-      <c r="C19" s="43">
-        <v>2</v>
+      <c r="C19" s="47">
+        <v>3</v>
       </c>
       <c r="D19" t="s">
         <v>439</v>
@@ -5258,8 +5267,8 @@
       <c r="B20" s="38">
         <v>4</v>
       </c>
-      <c r="C20" s="43">
-        <v>1</v>
+      <c r="C20" s="47">
+        <v>2</v>
       </c>
       <c r="D20" t="s">
         <v>440</v>
@@ -5276,7 +5285,7 @@
       <c r="B21" s="38">
         <v>5</v>
       </c>
-      <c r="C21" s="43">
+      <c r="C21" s="47">
         <v>2.5</v>
       </c>
       <c r="D21" t="s">
@@ -5294,7 +5303,7 @@
       <c r="B22" s="38">
         <v>8</v>
       </c>
-      <c r="C22" s="43">
+      <c r="C22" s="47">
         <v>2.5</v>
       </c>
       <c r="D22" t="s">
@@ -5311,7 +5320,7 @@
       <c r="B23" s="39">
         <v>9</v>
       </c>
-      <c r="C23" s="41">
+      <c r="C23" s="50">
         <v>2.5</v>
       </c>
       <c r="D23" s="28" t="s">
@@ -5329,7 +5338,7 @@
       <c r="B24" s="37">
         <v>1</v>
       </c>
-      <c r="C24" s="40">
+      <c r="C24" s="62">
         <v>1</v>
       </c>
       <c r="D24" s="27" t="s">
@@ -5346,7 +5355,7 @@
       <c r="B25" s="38">
         <v>2</v>
       </c>
-      <c r="C25" s="43">
+      <c r="C25" s="62">
         <v>2</v>
       </c>
       <c r="D25" t="s">
@@ -5364,7 +5373,7 @@
       <c r="B26" s="38">
         <v>3</v>
       </c>
-      <c r="C26" s="43">
+      <c r="C26" s="62">
         <v>3</v>
       </c>
       <c r="D26" t="s">
@@ -5382,7 +5391,7 @@
       <c r="B27" s="38">
         <v>4</v>
       </c>
-      <c r="C27" s="43">
+      <c r="C27" s="62">
         <v>4</v>
       </c>
       <c r="D27" t="s">
@@ -5399,7 +5408,7 @@
       <c r="B28" s="38">
         <v>5</v>
       </c>
-      <c r="C28" s="43">
+      <c r="C28" s="62">
         <v>5</v>
       </c>
       <c r="D28" t="s">
@@ -5417,7 +5426,7 @@
       <c r="B29" s="38">
         <v>6</v>
       </c>
-      <c r="C29" s="43">
+      <c r="C29" s="62">
         <v>6</v>
       </c>
       <c r="D29" t="s">
@@ -5435,7 +5444,7 @@
       <c r="B30" s="38">
         <v>7</v>
       </c>
-      <c r="C30" s="43">
+      <c r="C30" s="62">
         <v>7</v>
       </c>
       <c r="D30" t="s">
@@ -5452,7 +5461,7 @@
       <c r="B31" s="38">
         <v>8</v>
       </c>
-      <c r="C31" s="43">
+      <c r="C31" s="62">
         <v>4</v>
       </c>
       <c r="D31" t="s">
@@ -5469,7 +5478,7 @@
       <c r="B32" s="38">
         <v>98</v>
       </c>
-      <c r="C32" s="43">
+      <c r="C32" s="62">
         <v>4</v>
       </c>
       <c r="D32" t="s">
@@ -5487,7 +5496,7 @@
       <c r="B33" s="39">
         <v>99</v>
       </c>
-      <c r="C33" s="41">
+      <c r="C33" s="63">
         <v>4</v>
       </c>
       <c r="D33" s="28" t="s">
@@ -5505,7 +5514,7 @@
       <c r="B34" s="37">
         <v>1</v>
       </c>
-      <c r="C34" s="40">
+      <c r="C34" s="61">
         <v>5</v>
       </c>
       <c r="D34" s="27" t="s">
@@ -5522,7 +5531,7 @@
       <c r="B35" s="38">
         <v>2</v>
       </c>
-      <c r="C35" s="43">
+      <c r="C35" s="62">
         <v>4</v>
       </c>
       <c r="D35" t="s">
@@ -5540,7 +5549,7 @@
       <c r="B36" s="38">
         <v>3</v>
       </c>
-      <c r="C36" s="43">
+      <c r="C36" s="62">
         <v>3</v>
       </c>
       <c r="D36" t="s">
@@ -5558,7 +5567,7 @@
       <c r="B37" s="38">
         <v>4</v>
       </c>
-      <c r="C37" s="43">
+      <c r="C37" s="62">
         <v>2</v>
       </c>
       <c r="D37" t="s">
@@ -5576,7 +5585,7 @@
       <c r="B38" s="38">
         <v>5</v>
       </c>
-      <c r="C38" s="43">
+      <c r="C38" s="62">
         <v>1</v>
       </c>
       <c r="D38" t="s">
@@ -5594,8 +5603,8 @@
       <c r="B39" s="38">
         <v>6</v>
       </c>
-      <c r="C39" s="43">
-        <v>3</v>
+      <c r="C39" s="62">
+        <v>2.5</v>
       </c>
       <c r="D39" t="s">
         <v>437</v>
@@ -5612,8 +5621,8 @@
       <c r="B40" s="38">
         <v>8</v>
       </c>
-      <c r="C40" s="43">
-        <v>3</v>
+      <c r="C40" s="62">
+        <v>2.5</v>
       </c>
       <c r="D40" t="s">
         <v>437</v>
@@ -5630,8 +5639,8 @@
       <c r="B41" s="39">
         <v>9</v>
       </c>
-      <c r="C41" s="41">
-        <v>3</v>
+      <c r="C41" s="63">
+        <v>2.5</v>
       </c>
       <c r="D41" t="s">
         <v>437</v>
@@ -5644,10 +5653,10 @@
       <c r="A42" s="32" t="s">
         <v>597</v>
       </c>
-      <c r="B42" s="53">
+      <c r="B42" s="47">
         <v>1</v>
       </c>
-      <c r="C42" s="54" t="s">
+      <c r="C42" s="48" t="s">
         <v>473</v>
       </c>
       <c r="D42" s="1"/>
@@ -5657,10 +5666,10 @@
       <c r="A43" s="32" t="s">
         <v>597</v>
       </c>
-      <c r="B43" s="53">
+      <c r="B43" s="47">
         <v>2</v>
       </c>
-      <c r="C43" s="54" t="s">
+      <c r="C43" s="48" t="s">
         <v>717</v>
       </c>
       <c r="D43" s="3"/>
@@ -5671,23 +5680,23 @@
       <c r="A44" s="32" t="s">
         <v>597</v>
       </c>
-      <c r="B44" s="53">
+      <c r="B44" s="47">
         <v>8</v>
       </c>
-      <c r="C44" s="54" t="s">
+      <c r="C44" s="48" t="s">
         <v>717</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="4"/>
     </row>
     <row r="45" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="55" t="s">
+      <c r="A45" s="49" t="s">
         <v>597</v>
       </c>
-      <c r="B45" s="56">
+      <c r="B45" s="50">
         <v>9</v>
       </c>
-      <c r="C45" s="57" t="s">
+      <c r="C45" s="51" t="s">
         <v>717</v>
       </c>
       <c r="D45" s="3"/>
@@ -5697,10 +5706,10 @@
       <c r="A46" s="33" t="s">
         <v>598</v>
       </c>
-      <c r="B46" s="58">
+      <c r="B46" s="52">
         <v>1</v>
       </c>
-      <c r="C46" s="59" t="s">
+      <c r="C46" s="53" t="s">
         <v>473</v>
       </c>
       <c r="D46" s="3"/>
@@ -5710,10 +5719,10 @@
       <c r="A47" s="32" t="s">
         <v>598</v>
       </c>
-      <c r="B47" s="53">
+      <c r="B47" s="47">
         <v>2</v>
       </c>
-      <c r="C47" s="54" t="s">
+      <c r="C47" s="48" t="s">
         <v>717</v>
       </c>
       <c r="D47" s="3"/>
@@ -5723,23 +5732,23 @@
       <c r="A48" s="32" t="s">
         <v>598</v>
       </c>
-      <c r="B48" s="53">
+      <c r="B48" s="47">
         <v>8</v>
       </c>
-      <c r="C48" s="54" t="s">
+      <c r="C48" s="48" t="s">
         <v>717</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="4"/>
     </row>
     <row r="49" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="55" t="s">
+      <c r="A49" s="49" t="s">
         <v>598</v>
       </c>
-      <c r="B49" s="56">
+      <c r="B49" s="50">
         <v>9</v>
       </c>
-      <c r="C49" s="57" t="s">
+      <c r="C49" s="51" t="s">
         <v>717</v>
       </c>
       <c r="D49" s="3"/>
@@ -5749,10 +5758,10 @@
       <c r="A50" s="33" t="s">
         <v>599</v>
       </c>
-      <c r="B50" s="58">
+      <c r="B50" s="52">
         <v>1</v>
       </c>
-      <c r="C50" s="59" t="s">
+      <c r="C50" s="53" t="s">
         <v>473</v>
       </c>
       <c r="D50" s="3"/>
@@ -5762,10 +5771,10 @@
       <c r="A51" s="32" t="s">
         <v>599</v>
       </c>
-      <c r="B51" s="53">
+      <c r="B51" s="47">
         <v>2</v>
       </c>
-      <c r="C51" s="54" t="s">
+      <c r="C51" s="48" t="s">
         <v>717</v>
       </c>
       <c r="D51" s="3"/>
@@ -5775,23 +5784,23 @@
       <c r="A52" s="32" t="s">
         <v>599</v>
       </c>
-      <c r="B52" s="53">
+      <c r="B52" s="47">
         <v>8</v>
       </c>
-      <c r="C52" s="54" t="s">
+      <c r="C52" s="48" t="s">
         <v>717</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="4"/>
     </row>
     <row r="53" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="55" t="s">
+      <c r="A53" s="49" t="s">
         <v>599</v>
       </c>
-      <c r="B53" s="56">
+      <c r="B53" s="50">
         <v>9</v>
       </c>
-      <c r="C53" s="57" t="s">
+      <c r="C53" s="51" t="s">
         <v>717</v>
       </c>
       <c r="D53" s="3"/>
@@ -5801,10 +5810,10 @@
       <c r="A54" s="33" t="s">
         <v>600</v>
       </c>
-      <c r="B54" s="58">
+      <c r="B54" s="52">
         <v>1</v>
       </c>
-      <c r="C54" s="59" t="s">
+      <c r="C54" s="53" t="s">
         <v>473</v>
       </c>
       <c r="D54" s="3"/>
@@ -5814,10 +5823,10 @@
       <c r="A55" s="32" t="s">
         <v>600</v>
       </c>
-      <c r="B55" s="53">
+      <c r="B55" s="47">
         <v>2</v>
       </c>
-      <c r="C55" s="54" t="s">
+      <c r="C55" s="48" t="s">
         <v>717</v>
       </c>
       <c r="D55" s="3"/>
@@ -5827,23 +5836,23 @@
       <c r="A56" s="32" t="s">
         <v>600</v>
       </c>
-      <c r="B56" s="53">
+      <c r="B56" s="47">
         <v>8</v>
       </c>
-      <c r="C56" s="54" t="s">
+      <c r="C56" s="48" t="s">
         <v>717</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="4"/>
     </row>
     <row r="57" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="55" t="s">
+      <c r="A57" s="49" t="s">
         <v>600</v>
       </c>
-      <c r="B57" s="56">
+      <c r="B57" s="50">
         <v>9</v>
       </c>
-      <c r="C57" s="57" t="s">
+      <c r="C57" s="51" t="s">
         <v>717</v>
       </c>
       <c r="D57" s="3"/>
@@ -5853,10 +5862,10 @@
       <c r="A58" s="33" t="s">
         <v>601</v>
       </c>
-      <c r="B58" s="58">
+      <c r="B58" s="52">
         <v>1</v>
       </c>
-      <c r="C58" s="59" t="s">
+      <c r="C58" s="53" t="s">
         <v>473</v>
       </c>
       <c r="D58" s="3"/>
@@ -5866,10 +5875,10 @@
       <c r="A59" s="32" t="s">
         <v>601</v>
       </c>
-      <c r="B59" s="53">
+      <c r="B59" s="47">
         <v>2</v>
       </c>
-      <c r="C59" s="54" t="s">
+      <c r="C59" s="48" t="s">
         <v>717</v>
       </c>
       <c r="D59" s="3"/>
@@ -5879,49 +5888,49 @@
       <c r="A60" s="32" t="s">
         <v>601</v>
       </c>
-      <c r="B60" s="53">
+      <c r="B60" s="47">
         <v>8</v>
       </c>
-      <c r="C60" s="54" t="s">
+      <c r="C60" s="48" t="s">
         <v>717</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="4"/>
     </row>
     <row r="61" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="55" t="s">
+      <c r="A61" s="49" t="s">
         <v>601</v>
       </c>
-      <c r="B61" s="56">
+      <c r="B61" s="50">
         <v>9</v>
       </c>
-      <c r="C61" s="57" t="s">
+      <c r="C61" s="51" t="s">
         <v>717</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="4"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="48" t="s">
+      <c r="A62" s="42" t="s">
         <v>354</v>
       </c>
       <c r="B62" s="40">
         <v>1</v>
       </c>
-      <c r="C62" s="42" t="s">
+      <c r="C62" s="60" t="s">
         <v>495</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="4"/>
     </row>
     <row r="63" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="49" t="s">
+      <c r="A63" s="43" t="s">
         <v>354</v>
       </c>
       <c r="B63" s="41">
         <v>2</v>
       </c>
-      <c r="C63" s="44" t="s">
+      <c r="C63" s="64" t="s">
         <v>496</v>
       </c>
       <c r="D63" s="3"/>
@@ -5934,7 +5943,7 @@
       <c r="B64" s="37">
         <v>1</v>
       </c>
-      <c r="C64" s="42" t="s">
+      <c r="C64" s="60" t="s">
         <v>491</v>
       </c>
       <c r="D64" s="3"/>
@@ -5947,7 +5956,7 @@
       <c r="B65" s="38">
         <v>2</v>
       </c>
-      <c r="C65" s="36" t="s">
+      <c r="C65" s="65" t="s">
         <v>492</v>
       </c>
       <c r="D65" s="3"/>
@@ -5960,7 +5969,7 @@
       <c r="B66" s="38">
         <v>3</v>
       </c>
-      <c r="C66" s="36" t="s">
+      <c r="C66" s="65" t="s">
         <v>493</v>
       </c>
       <c r="D66" s="3"/>
@@ -5973,7 +5982,7 @@
       <c r="B67" s="38">
         <v>4</v>
       </c>
-      <c r="C67" s="36" t="s">
+      <c r="C67" s="65" t="s">
         <v>494</v>
       </c>
       <c r="D67" s="3"/>
@@ -5986,7 +5995,7 @@
       <c r="B68" s="38">
         <v>5</v>
       </c>
-      <c r="C68" s="36" t="s">
+      <c r="C68" s="65" t="s">
         <v>494</v>
       </c>
       <c r="D68" s="3"/>
@@ -5999,7 +6008,7 @@
       <c r="B69" s="38">
         <v>8</v>
       </c>
-      <c r="C69" s="36" t="s">
+      <c r="C69" s="65" t="s">
         <v>494</v>
       </c>
       <c r="D69" s="3"/>
@@ -6012,7 +6021,7 @@
       <c r="B70" s="39">
         <v>9</v>
       </c>
-      <c r="C70" s="44" t="s">
+      <c r="C70" s="64" t="s">
         <v>494</v>
       </c>
       <c r="D70" s="5"/>
@@ -6025,7 +6034,7 @@
       <c r="B71" s="37">
         <v>1</v>
       </c>
-      <c r="C71" s="40">
+      <c r="C71" s="61">
         <v>1</v>
       </c>
       <c r="D71" s="1" t="s">
@@ -6040,7 +6049,7 @@
       <c r="B72" s="38">
         <v>2</v>
       </c>
-      <c r="C72" s="43">
+      <c r="C72" s="62">
         <v>1</v>
       </c>
       <c r="D72" s="3" t="s">
@@ -6055,7 +6064,7 @@
       <c r="B73" s="38">
         <v>3</v>
       </c>
-      <c r="C73" s="43">
+      <c r="C73" s="62">
         <v>0</v>
       </c>
       <c r="D73" s="3" t="s">
@@ -6070,7 +6079,7 @@
       <c r="B74" s="38">
         <v>4</v>
       </c>
-      <c r="C74" s="43">
+      <c r="C74" s="62">
         <v>0</v>
       </c>
       <c r="D74" s="3" t="s">
@@ -6085,7 +6094,7 @@
       <c r="B75" s="38">
         <v>5</v>
       </c>
-      <c r="C75" s="43">
+      <c r="C75" s="62">
         <v>0</v>
       </c>
       <c r="D75" s="3" t="s">
@@ -6100,7 +6109,7 @@
       <c r="B76" s="38">
         <v>8</v>
       </c>
-      <c r="C76" s="43">
+      <c r="C76" s="62">
         <v>0</v>
       </c>
       <c r="D76" s="3" t="s">
@@ -6115,7 +6124,7 @@
       <c r="B77" s="39">
         <v>9</v>
       </c>
-      <c r="C77" s="41">
+      <c r="C77" s="63">
         <v>0</v>
       </c>
       <c r="D77" s="5" t="s">
@@ -6130,7 +6139,7 @@
       <c r="B78" s="37">
         <v>1</v>
       </c>
-      <c r="C78" s="40">
+      <c r="C78" s="61">
         <v>1</v>
       </c>
       <c r="D78" s="1" t="s">
@@ -6145,7 +6154,7 @@
       <c r="B79" s="38">
         <v>2</v>
       </c>
-      <c r="C79" s="43">
+      <c r="C79" s="62">
         <v>1</v>
       </c>
       <c r="D79" s="3" t="s">
@@ -6160,7 +6169,7 @@
       <c r="B80" s="38">
         <v>3</v>
       </c>
-      <c r="C80" s="43">
+      <c r="C80" s="62">
         <v>0</v>
       </c>
       <c r="D80" s="3" t="s">
@@ -6175,7 +6184,7 @@
       <c r="B81" s="38">
         <v>4</v>
       </c>
-      <c r="C81" s="43">
+      <c r="C81" s="62">
         <v>0</v>
       </c>
       <c r="D81" s="3" t="s">
@@ -6191,7 +6200,7 @@
       <c r="B82" s="38">
         <v>5</v>
       </c>
-      <c r="C82" s="43">
+      <c r="C82" s="62">
         <v>0</v>
       </c>
       <c r="D82" s="3" t="s">
@@ -6207,7 +6216,7 @@
       <c r="B83" s="38">
         <v>8</v>
       </c>
-      <c r="C83" s="43">
+      <c r="C83" s="62">
         <v>0</v>
       </c>
       <c r="D83" s="3" t="s">
@@ -6223,7 +6232,7 @@
       <c r="B84" s="39">
         <v>9</v>
       </c>
-      <c r="C84" s="43">
+      <c r="C84" s="62">
         <v>0</v>
       </c>
       <c r="D84" s="5" t="s">
@@ -6239,14 +6248,14 @@
       <c r="B85" s="37">
         <v>1</v>
       </c>
-      <c r="C85" s="40" t="s">
+      <c r="C85" s="61" t="s">
         <v>634</v>
       </c>
       <c r="D85" s="27" t="s">
         <v>715</v>
       </c>
       <c r="E85" s="2"/>
-      <c r="F85" s="60"/>
+      <c r="F85" s="54"/>
       <c r="I85" s="35"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
@@ -6256,7 +6265,7 @@
       <c r="B86" s="38">
         <v>2</v>
       </c>
-      <c r="C86" s="43" t="s">
+      <c r="C86" s="62" t="s">
         <v>634</v>
       </c>
       <c r="D86" t="s">
@@ -6272,7 +6281,7 @@
       <c r="B87" s="38">
         <v>3</v>
       </c>
-      <c r="C87" s="43" t="s">
+      <c r="C87" s="62" t="s">
         <v>634</v>
       </c>
       <c r="D87" t="s">
@@ -6288,7 +6297,7 @@
       <c r="B88" s="38">
         <v>4</v>
       </c>
-      <c r="C88" s="43" t="s">
+      <c r="C88" s="62" t="s">
         <v>635</v>
       </c>
       <c r="D88" t="s">
@@ -6304,7 +6313,7 @@
       <c r="B89" s="38">
         <v>5</v>
       </c>
-      <c r="C89" s="43" t="s">
+      <c r="C89" s="62" t="s">
         <v>635</v>
       </c>
       <c r="D89" t="s">
@@ -6320,7 +6329,7 @@
       <c r="B90" s="38">
         <v>6</v>
       </c>
-      <c r="C90" s="43" t="s">
+      <c r="C90" s="62" t="s">
         <v>635</v>
       </c>
       <c r="D90" t="s">
@@ -6336,7 +6345,7 @@
       <c r="B91" s="38">
         <v>7</v>
       </c>
-      <c r="C91" s="43" t="s">
+      <c r="C91" s="62" t="s">
         <v>636</v>
       </c>
       <c r="D91" t="s">
@@ -6351,7 +6360,7 @@
       <c r="B92" s="38">
         <v>8</v>
       </c>
-      <c r="C92" s="43" t="s">
+      <c r="C92" s="62" t="s">
         <v>636</v>
       </c>
       <c r="D92" t="s">
@@ -6367,7 +6376,7 @@
       <c r="B93" s="38">
         <v>9</v>
       </c>
-      <c r="C93" s="43" t="s">
+      <c r="C93" s="62" t="s">
         <v>636</v>
       </c>
       <c r="D93" t="s">
@@ -6383,7 +6392,7 @@
       <c r="B94" s="38">
         <v>10</v>
       </c>
-      <c r="C94" s="43" t="s">
+      <c r="C94" s="62" t="s">
         <v>714</v>
       </c>
       <c r="D94" t="s">
@@ -6399,7 +6408,7 @@
       <c r="B95" s="38">
         <v>11</v>
       </c>
-      <c r="C95" s="43" t="s">
+      <c r="C95" s="62" t="s">
         <v>714</v>
       </c>
       <c r="D95" t="s">
@@ -6415,7 +6424,7 @@
       <c r="B96" s="38">
         <v>12</v>
       </c>
-      <c r="C96" s="43" t="s">
+      <c r="C96" s="62" t="s">
         <v>714</v>
       </c>
       <c r="D96" t="s">
@@ -6430,7 +6439,7 @@
       <c r="B97" s="38">
         <v>13</v>
       </c>
-      <c r="C97" s="43" t="s">
+      <c r="C97" s="62" t="s">
         <v>637</v>
       </c>
       <c r="D97" t="s">
@@ -6446,7 +6455,7 @@
       <c r="B98" s="38">
         <v>14</v>
       </c>
-      <c r="C98" s="43" t="s">
+      <c r="C98" s="62" t="s">
         <v>637</v>
       </c>
       <c r="D98" t="s">
@@ -6462,7 +6471,7 @@
       <c r="B99" s="38">
         <v>15</v>
       </c>
-      <c r="C99" s="43" t="s">
+      <c r="C99" s="62" t="s">
         <v>637</v>
       </c>
       <c r="D99" t="s">
@@ -6477,7 +6486,7 @@
       <c r="B100" s="38">
         <v>16</v>
       </c>
-      <c r="C100" s="43" t="s">
+      <c r="C100" s="62" t="s">
         <v>637</v>
       </c>
       <c r="D100" t="s">
@@ -6490,10 +6499,10 @@
       <c r="A101" s="34" t="s">
         <v>716</v>
       </c>
-      <c r="B101" s="61">
+      <c r="B101" s="55">
         <v>97</v>
       </c>
-      <c r="C101" s="43" t="s">
+      <c r="C101" s="62" t="s">
         <v>638</v>
       </c>
       <c r="D101" t="s">
@@ -6506,10 +6515,10 @@
       <c r="A102" s="34" t="s">
         <v>716</v>
       </c>
-      <c r="B102" s="61">
+      <c r="B102" s="55">
         <v>98</v>
       </c>
-      <c r="C102" s="43" t="s">
+      <c r="C102" s="62" t="s">
         <v>638</v>
       </c>
       <c r="D102" t="s">
@@ -6522,10 +6531,10 @@
       <c r="A103" s="34" t="s">
         <v>716</v>
       </c>
-      <c r="B103" s="62">
+      <c r="B103" s="56">
         <v>99</v>
       </c>
-      <c r="C103" s="43" t="s">
+      <c r="C103" s="62" t="s">
         <v>638</v>
       </c>
       <c r="D103" t="s">
@@ -6534,196 +6543,196 @@
       <c r="E103" s="4"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A104" s="50" t="s">
+      <c r="A104" s="44" t="s">
         <v>357</v>
       </c>
       <c r="B104" s="37">
         <v>1</v>
       </c>
-      <c r="C104" s="40" t="s">
+      <c r="C104" s="61" t="s">
         <v>639</v>
       </c>
       <c r="D104" s="27"/>
       <c r="E104" s="2"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A105" s="51" t="s">
+      <c r="A105" s="45" t="s">
         <v>357</v>
       </c>
       <c r="B105" s="38">
         <v>2</v>
       </c>
-      <c r="C105" s="43" t="s">
+      <c r="C105" s="62" t="s">
         <v>640</v>
       </c>
       <c r="E105" s="4"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A106" s="51" t="s">
+      <c r="A106" s="45" t="s">
         <v>357</v>
       </c>
       <c r="B106" s="38">
         <v>3</v>
       </c>
-      <c r="C106" s="43" t="s">
+      <c r="C106" s="62" t="s">
         <v>641</v>
       </c>
       <c r="E106" s="4"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A107" s="51" t="s">
+      <c r="A107" s="45" t="s">
         <v>357</v>
       </c>
       <c r="B107" s="38">
         <v>4</v>
       </c>
-      <c r="C107" s="43" t="s">
+      <c r="C107" s="62" t="s">
         <v>642</v>
       </c>
       <c r="E107" s="4"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A108" s="51" t="s">
+      <c r="A108" s="45" t="s">
         <v>357</v>
       </c>
       <c r="B108" s="38">
         <v>5</v>
       </c>
-      <c r="C108" s="43" t="s">
+      <c r="C108" s="62" t="s">
         <v>643</v>
       </c>
       <c r="E108" s="4"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A109" s="51" t="s">
+      <c r="A109" s="45" t="s">
         <v>357</v>
       </c>
       <c r="B109" s="38">
         <v>6</v>
       </c>
-      <c r="C109" s="43" t="s">
+      <c r="C109" s="62" t="s">
         <v>644</v>
       </c>
       <c r="E109" s="4"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A110" s="51" t="s">
+      <c r="A110" s="45" t="s">
         <v>357</v>
       </c>
       <c r="B110" s="38">
         <v>8</v>
       </c>
-      <c r="C110" s="43" t="s">
+      <c r="C110" s="62" t="s">
         <v>638</v>
       </c>
       <c r="E110" s="4"/>
     </row>
     <row r="111" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="51" t="s">
+      <c r="A111" s="45" t="s">
         <v>357</v>
       </c>
       <c r="B111" s="39">
         <v>9</v>
       </c>
-      <c r="C111" s="41" t="s">
+      <c r="C111" s="63" t="s">
         <v>638</v>
       </c>
       <c r="D111" s="28"/>
       <c r="E111" s="6"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A112" s="50" t="s">
+      <c r="A112" s="44" t="s">
         <v>356</v>
       </c>
       <c r="B112" s="37">
         <v>1</v>
       </c>
-      <c r="C112" s="40" t="s">
+      <c r="C112" s="61" t="s">
         <v>645</v>
       </c>
       <c r="D112" s="27"/>
       <c r="E112" s="2"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A113" s="51" t="s">
+      <c r="A113" s="45" t="s">
         <v>356</v>
       </c>
       <c r="B113" s="38">
         <v>2</v>
       </c>
-      <c r="C113" s="43" t="s">
+      <c r="C113" s="62" t="s">
         <v>646</v>
       </c>
       <c r="E113" s="4"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A114" s="51" t="s">
+      <c r="A114" s="45" t="s">
         <v>356</v>
       </c>
       <c r="B114" s="38">
         <v>3</v>
       </c>
-      <c r="C114" s="43" t="s">
+      <c r="C114" s="62" t="s">
         <v>647</v>
       </c>
       <c r="E114" s="4"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A115" s="51" t="s">
+      <c r="A115" s="45" t="s">
         <v>356</v>
       </c>
       <c r="B115" s="38">
         <v>4</v>
       </c>
-      <c r="C115" s="43" t="s">
+      <c r="C115" s="62" t="s">
         <v>648</v>
       </c>
       <c r="E115" s="4"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A116" s="51" t="s">
+      <c r="A116" s="45" t="s">
         <v>356</v>
       </c>
       <c r="B116" s="38">
         <v>5</v>
       </c>
-      <c r="C116" s="43" t="s">
+      <c r="C116" s="62" t="s">
         <v>649</v>
       </c>
       <c r="E116" s="4"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A117" s="51" t="s">
+      <c r="A117" s="45" t="s">
         <v>356</v>
       </c>
       <c r="B117" s="38">
         <v>6</v>
       </c>
-      <c r="C117" s="43" t="s">
+      <c r="C117" s="62" t="s">
         <v>650</v>
       </c>
       <c r="E117" s="4"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A118" s="51" t="s">
+      <c r="A118" s="45" t="s">
         <v>356</v>
       </c>
       <c r="B118" s="38">
         <v>8</v>
       </c>
-      <c r="C118" s="43" t="s">
+      <c r="C118" s="62" t="s">
         <v>638</v>
       </c>
       <c r="E118" s="4"/>
     </row>
     <row r="119" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="52" t="s">
+      <c r="A119" s="46" t="s">
         <v>356</v>
       </c>
       <c r="B119" s="39">
         <v>9</v>
       </c>
-      <c r="C119" s="41" t="s">
+      <c r="C119" s="63" t="s">
         <v>638</v>
       </c>
       <c r="D119" s="28"/>
@@ -6736,7 +6745,7 @@
       <c r="B120" s="37">
         <v>1</v>
       </c>
-      <c r="C120" s="43" t="s">
+      <c r="C120" s="62" t="s">
         <v>651</v>
       </c>
       <c r="E120" s="4"/>
@@ -6748,7 +6757,7 @@
       <c r="B121" s="38">
         <v>2</v>
       </c>
-      <c r="C121" s="43" t="s">
+      <c r="C121" s="62" t="s">
         <v>652</v>
       </c>
       <c r="E121" s="4"/>
@@ -6760,7 +6769,7 @@
       <c r="B122" s="38">
         <v>3</v>
       </c>
-      <c r="C122" s="43" t="s">
+      <c r="C122" s="62" t="s">
         <v>653</v>
       </c>
       <c r="E122" s="4"/>
@@ -6772,7 +6781,7 @@
       <c r="B123" s="38">
         <v>4</v>
       </c>
-      <c r="C123" s="43" t="s">
+      <c r="C123" s="62" t="s">
         <v>654</v>
       </c>
       <c r="E123" s="4"/>
@@ -6784,7 +6793,7 @@
       <c r="B124" s="38">
         <v>5</v>
       </c>
-      <c r="C124" s="43" t="s">
+      <c r="C124" s="62" t="s">
         <v>655</v>
       </c>
       <c r="E124" s="4"/>
@@ -6796,7 +6805,7 @@
       <c r="B125" s="38">
         <v>6</v>
       </c>
-      <c r="C125" s="43" t="s">
+      <c r="C125" s="62" t="s">
         <v>656</v>
       </c>
       <c r="E125" s="4"/>
@@ -6808,7 +6817,7 @@
       <c r="B126" s="38">
         <v>7</v>
       </c>
-      <c r="C126" s="43" t="s">
+      <c r="C126" s="62" t="s">
         <v>494</v>
       </c>
       <c r="E126" s="4"/>
@@ -6820,7 +6829,7 @@
       <c r="B127" s="38">
         <v>8</v>
       </c>
-      <c r="C127" s="43" t="s">
+      <c r="C127" s="62" t="s">
         <v>657</v>
       </c>
       <c r="E127" s="4"/>
@@ -6832,7 +6841,7 @@
       <c r="B128" s="38">
         <v>98</v>
       </c>
-      <c r="C128" s="43" t="s">
+      <c r="C128" s="62" t="s">
         <v>638</v>
       </c>
       <c r="E128" s="4"/>
@@ -6844,7 +6853,7 @@
       <c r="B129" s="39">
         <v>99</v>
       </c>
-      <c r="C129" s="41" t="s">
+      <c r="C129" s="63" t="s">
         <v>638</v>
       </c>
       <c r="D129" s="28"/>
@@ -6857,7 +6866,7 @@
       <c r="B130" s="37">
         <v>1</v>
       </c>
-      <c r="C130" s="45" t="s">
+      <c r="C130" s="66" t="s">
         <v>687</v>
       </c>
       <c r="D130" s="7" t="s">
@@ -6871,7 +6880,7 @@
       <c r="B131" s="38">
         <v>2</v>
       </c>
-      <c r="C131" s="46" t="s">
+      <c r="C131" s="67" t="s">
         <v>698</v>
       </c>
       <c r="D131" s="8" t="s">
@@ -6885,7 +6894,7 @@
       <c r="B132" s="38">
         <v>4</v>
       </c>
-      <c r="C132" s="46" t="s">
+      <c r="C132" s="67" t="s">
         <v>698</v>
       </c>
       <c r="D132" s="8" t="s">
@@ -6899,7 +6908,7 @@
       <c r="B133" s="38">
         <v>5</v>
       </c>
-      <c r="C133" s="46" t="s">
+      <c r="C133" s="67" t="s">
         <v>687</v>
       </c>
       <c r="D133" s="8" t="s">
@@ -6913,7 +6922,7 @@
       <c r="B134" s="38">
         <v>6</v>
       </c>
-      <c r="C134" s="46" t="s">
+      <c r="C134" s="67" t="s">
         <v>698</v>
       </c>
       <c r="D134" s="8" t="s">
@@ -6927,7 +6936,7 @@
       <c r="B135" s="38">
         <v>8</v>
       </c>
-      <c r="C135" s="46" t="s">
+      <c r="C135" s="67" t="s">
         <v>698</v>
       </c>
       <c r="D135" s="8" t="s">
@@ -6941,7 +6950,7 @@
       <c r="B136" s="38">
         <v>9</v>
       </c>
-      <c r="C136" s="46" t="s">
+      <c r="C136" s="67" t="s">
         <v>710</v>
       </c>
       <c r="D136" s="8" t="s">
@@ -6955,7 +6964,7 @@
       <c r="B137" s="38">
         <v>10</v>
       </c>
-      <c r="C137" s="46" t="s">
+      <c r="C137" s="67" t="s">
         <v>710</v>
       </c>
       <c r="D137" s="8" t="s">
@@ -6969,7 +6978,7 @@
       <c r="B138" s="38">
         <v>11</v>
       </c>
-      <c r="C138" s="46" t="s">
+      <c r="C138" s="67" t="s">
         <v>710</v>
       </c>
       <c r="D138" s="8" t="s">
@@ -6983,7 +6992,7 @@
       <c r="B139" s="38">
         <v>12</v>
       </c>
-      <c r="C139" s="46" t="s">
+      <c r="C139" s="67" t="s">
         <v>687</v>
       </c>
       <c r="D139" s="8" t="s">
@@ -6997,7 +7006,7 @@
       <c r="B140" s="38">
         <v>13</v>
       </c>
-      <c r="C140" s="46" t="s">
+      <c r="C140" s="67" t="s">
         <v>687</v>
       </c>
       <c r="D140" s="8" t="s">
@@ -7011,7 +7020,7 @@
       <c r="B141" s="38">
         <v>15</v>
       </c>
-      <c r="C141" s="46" t="s">
+      <c r="C141" s="67" t="s">
         <v>698</v>
       </c>
       <c r="D141" s="8" t="s">
@@ -7025,7 +7034,7 @@
       <c r="B142" s="38">
         <v>16</v>
       </c>
-      <c r="C142" s="46" t="s">
+      <c r="C142" s="67" t="s">
         <v>698</v>
       </c>
       <c r="D142" s="8" t="s">
@@ -7039,7 +7048,7 @@
       <c r="B143" s="38">
         <v>17</v>
       </c>
-      <c r="C143" s="46" t="s">
+      <c r="C143" s="67" t="s">
         <v>711</v>
       </c>
       <c r="D143" s="8" t="s">
@@ -7053,7 +7062,7 @@
       <c r="B144" s="38">
         <v>18</v>
       </c>
-      <c r="C144" s="46" t="s">
+      <c r="C144" s="67" t="s">
         <v>711</v>
       </c>
       <c r="D144" s="8" t="s">
@@ -7067,7 +7076,7 @@
       <c r="B145" s="38">
         <v>19</v>
       </c>
-      <c r="C145" s="46" t="s">
+      <c r="C145" s="67" t="s">
         <v>711</v>
       </c>
       <c r="D145" s="8" t="s">
@@ -7081,7 +7090,7 @@
       <c r="B146" s="38">
         <v>20</v>
       </c>
-      <c r="C146" s="46" t="s">
+      <c r="C146" s="67" t="s">
         <v>711</v>
       </c>
       <c r="D146" s="8" t="s">
@@ -7095,7 +7104,7 @@
       <c r="B147" s="38">
         <v>21</v>
       </c>
-      <c r="C147" s="46" t="s">
+      <c r="C147" s="67" t="s">
         <v>687</v>
       </c>
       <c r="D147" s="8" t="s">
@@ -7109,7 +7118,7 @@
       <c r="B148" s="38">
         <v>22</v>
       </c>
-      <c r="C148" s="46" t="s">
+      <c r="C148" s="67" t="s">
         <v>687</v>
       </c>
       <c r="D148" s="8" t="s">
@@ -7123,7 +7132,7 @@
       <c r="B149" s="38">
         <v>23</v>
       </c>
-      <c r="C149" s="46" t="s">
+      <c r="C149" s="67" t="s">
         <v>710</v>
       </c>
       <c r="D149" s="8" t="s">
@@ -7137,7 +7146,7 @@
       <c r="B150" s="38">
         <v>24</v>
       </c>
-      <c r="C150" s="46" t="s">
+      <c r="C150" s="67" t="s">
         <v>710</v>
       </c>
       <c r="D150" s="8" t="s">
@@ -7151,7 +7160,7 @@
       <c r="B151" s="38">
         <v>25</v>
       </c>
-      <c r="C151" s="46" t="s">
+      <c r="C151" s="67" t="s">
         <v>710</v>
       </c>
       <c r="D151" s="8" t="s">
@@ -7165,7 +7174,7 @@
       <c r="B152" s="38">
         <v>26</v>
       </c>
-      <c r="C152" s="46" t="s">
+      <c r="C152" s="67" t="s">
         <v>711</v>
       </c>
       <c r="D152" s="8" t="s">
@@ -7179,7 +7188,7 @@
       <c r="B153" s="38">
         <v>27</v>
       </c>
-      <c r="C153" s="46" t="s">
+      <c r="C153" s="67" t="s">
         <v>711</v>
       </c>
       <c r="D153" s="8" t="s">
@@ -7193,7 +7202,7 @@
       <c r="B154" s="38">
         <v>28</v>
       </c>
-      <c r="C154" s="46" t="s">
+      <c r="C154" s="67" t="s">
         <v>687</v>
       </c>
       <c r="D154" s="8" t="s">
@@ -7207,7 +7216,7 @@
       <c r="B155" s="38">
         <v>29</v>
       </c>
-      <c r="C155" s="46" t="s">
+      <c r="C155" s="67" t="s">
         <v>711</v>
       </c>
       <c r="D155" s="8" t="s">
@@ -7221,7 +7230,7 @@
       <c r="B156" s="38">
         <v>30</v>
       </c>
-      <c r="C156" s="46" t="s">
+      <c r="C156" s="67" t="s">
         <v>698</v>
       </c>
       <c r="D156" s="8" t="s">
@@ -7235,7 +7244,7 @@
       <c r="B157" s="38">
         <v>31</v>
       </c>
-      <c r="C157" s="46" t="s">
+      <c r="C157" s="67" t="s">
         <v>711</v>
       </c>
       <c r="D157" s="8" t="s">
@@ -7249,7 +7258,7 @@
       <c r="B158" s="38">
         <v>32</v>
       </c>
-      <c r="C158" s="46" t="s">
+      <c r="C158" s="67" t="s">
         <v>698</v>
       </c>
       <c r="D158" s="8" t="s">
@@ -7263,7 +7272,7 @@
       <c r="B159" s="38">
         <v>33</v>
       </c>
-      <c r="C159" s="46" t="s">
+      <c r="C159" s="67" t="s">
         <v>710</v>
       </c>
       <c r="D159" s="8" t="s">
@@ -7277,7 +7286,7 @@
       <c r="B160" s="38">
         <v>34</v>
       </c>
-      <c r="C160" s="46" t="s">
+      <c r="C160" s="67" t="s">
         <v>710</v>
       </c>
       <c r="D160" s="8" t="s">
@@ -7291,7 +7300,7 @@
       <c r="B161" s="38">
         <v>35</v>
       </c>
-      <c r="C161" s="46" t="s">
+      <c r="C161" s="67" t="s">
         <v>698</v>
       </c>
       <c r="D161" s="8" t="s">
@@ -7305,7 +7314,7 @@
       <c r="B162" s="38">
         <v>36</v>
       </c>
-      <c r="C162" s="46" t="s">
+      <c r="C162" s="67" t="s">
         <v>710</v>
       </c>
       <c r="D162" s="8" t="s">
@@ -7319,7 +7328,7 @@
       <c r="B163" s="38">
         <v>37</v>
       </c>
-      <c r="C163" s="46" t="s">
+      <c r="C163" s="67" t="s">
         <v>687</v>
       </c>
       <c r="D163" s="8" t="s">
@@ -7333,7 +7342,7 @@
       <c r="B164" s="38">
         <v>38</v>
       </c>
-      <c r="C164" s="46" t="s">
+      <c r="C164" s="67" t="s">
         <v>711</v>
       </c>
       <c r="D164" s="8" t="s">
@@ -7347,7 +7356,7 @@
       <c r="B165" s="38">
         <v>39</v>
       </c>
-      <c r="C165" s="46" t="s">
+      <c r="C165" s="67" t="s">
         <v>711</v>
       </c>
       <c r="D165" s="8" t="s">
@@ -7361,7 +7370,7 @@
       <c r="B166" s="38">
         <v>40</v>
       </c>
-      <c r="C166" s="46" t="s">
+      <c r="C166" s="67" t="s">
         <v>687</v>
       </c>
       <c r="D166" s="8" t="s">
@@ -7375,7 +7384,7 @@
       <c r="B167" s="38">
         <v>41</v>
       </c>
-      <c r="C167" s="46" t="s">
+      <c r="C167" s="67" t="s">
         <v>698</v>
       </c>
       <c r="D167" s="8" t="s">
@@ -7389,7 +7398,7 @@
       <c r="B168" s="38">
         <v>42</v>
       </c>
-      <c r="C168" s="46" t="s">
+      <c r="C168" s="67" t="s">
         <v>710</v>
       </c>
       <c r="D168" s="8" t="s">
@@ -7403,7 +7412,7 @@
       <c r="B169" s="38">
         <v>44</v>
       </c>
-      <c r="C169" s="46" t="s">
+      <c r="C169" s="67" t="s">
         <v>710</v>
       </c>
       <c r="D169" s="8" t="s">
@@ -7417,7 +7426,7 @@
       <c r="B170" s="38">
         <v>45</v>
       </c>
-      <c r="C170" s="46" t="s">
+      <c r="C170" s="67" t="s">
         <v>687</v>
       </c>
       <c r="D170" s="8" t="s">
@@ -7431,7 +7440,7 @@
       <c r="B171" s="38">
         <v>46</v>
       </c>
-      <c r="C171" s="46" t="s">
+      <c r="C171" s="67" t="s">
         <v>711</v>
       </c>
       <c r="D171" s="8" t="s">
@@ -7445,7 +7454,7 @@
       <c r="B172" s="38">
         <v>47</v>
       </c>
-      <c r="C172" s="46" t="s">
+      <c r="C172" s="67" t="s">
         <v>687</v>
       </c>
       <c r="D172" s="8" t="s">
@@ -7459,7 +7468,7 @@
       <c r="B173" s="38">
         <v>48</v>
       </c>
-      <c r="C173" s="46" t="s">
+      <c r="C173" s="67" t="s">
         <v>687</v>
       </c>
       <c r="D173" s="8" t="s">
@@ -7473,7 +7482,7 @@
       <c r="B174" s="38">
         <v>49</v>
       </c>
-      <c r="C174" s="46" t="s">
+      <c r="C174" s="67" t="s">
         <v>698</v>
       </c>
       <c r="D174" s="8" t="s">
@@ -7487,7 +7496,7 @@
       <c r="B175" s="38">
         <v>50</v>
       </c>
-      <c r="C175" s="46" t="s">
+      <c r="C175" s="67" t="s">
         <v>710</v>
       </c>
       <c r="D175" s="8" t="s">
@@ -7501,7 +7510,7 @@
       <c r="B176" s="38">
         <v>51</v>
       </c>
-      <c r="C176" s="46" t="s">
+      <c r="C176" s="67" t="s">
         <v>687</v>
       </c>
       <c r="D176" s="8" t="s">
@@ -7515,7 +7524,7 @@
       <c r="B177" s="38">
         <v>53</v>
       </c>
-      <c r="C177" s="46" t="s">
+      <c r="C177" s="67" t="s">
         <v>698</v>
       </c>
       <c r="D177" s="8" t="s">
@@ -7529,7 +7538,7 @@
       <c r="B178" s="38">
         <v>54</v>
       </c>
-      <c r="C178" s="46" t="s">
+      <c r="C178" s="67" t="s">
         <v>687</v>
       </c>
       <c r="D178" s="8" t="s">
@@ -7543,7 +7552,7 @@
       <c r="B179" s="38">
         <v>55</v>
       </c>
-      <c r="C179" s="46" t="s">
+      <c r="C179" s="67" t="s">
         <v>711</v>
       </c>
       <c r="D179" s="8" t="s">
@@ -7557,7 +7566,7 @@
       <c r="B180" s="39">
         <v>56</v>
       </c>
-      <c r="C180" s="47" t="s">
+      <c r="C180" s="68" t="s">
         <v>698</v>
       </c>
       <c r="D180" s="9" t="s">
@@ -7565,133 +7574,133 @@
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A181" s="63" t="s">
+      <c r="A181" s="57" t="s">
         <v>358</v>
       </c>
       <c r="B181" s="37">
         <v>1</v>
       </c>
-      <c r="C181" s="37" t="s">
+      <c r="C181" s="52" t="s">
         <v>719</v>
       </c>
       <c r="D181" s="7"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A182" s="64" t="s">
+      <c r="A182" s="58" t="s">
         <v>358</v>
       </c>
       <c r="B182" s="38">
         <v>2</v>
       </c>
-      <c r="C182" s="38" t="s">
+      <c r="C182" s="47" t="s">
         <v>720</v>
       </c>
       <c r="D182" s="8"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A183" s="64" t="s">
+      <c r="A183" s="58" t="s">
         <v>358</v>
       </c>
       <c r="B183" s="38">
         <v>3</v>
       </c>
-      <c r="C183" s="38" t="s">
+      <c r="C183" s="47" t="s">
         <v>718</v>
       </c>
       <c r="D183" s="8"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A184" s="64" t="s">
+      <c r="A184" s="58" t="s">
         <v>358</v>
       </c>
       <c r="B184" s="38">
         <v>4</v>
       </c>
-      <c r="C184" s="38" t="s">
+      <c r="C184" s="47" t="s">
         <v>721</v>
       </c>
       <c r="D184" s="8"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A185" s="64" t="s">
+      <c r="A185" s="58" t="s">
         <v>358</v>
       </c>
       <c r="B185" s="38">
         <v>5</v>
       </c>
-      <c r="C185" s="38" t="s">
+      <c r="C185" s="47" t="s">
         <v>722</v>
       </c>
       <c r="D185" s="8"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A186" s="64" t="s">
+      <c r="A186" s="58" t="s">
         <v>358</v>
       </c>
       <c r="B186" s="38">
         <v>6</v>
       </c>
-      <c r="C186" s="38" t="s">
+      <c r="C186" s="47" t="s">
         <v>723</v>
       </c>
       <c r="D186" s="8"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A187" s="64" t="s">
+      <c r="A187" s="58" t="s">
         <v>358</v>
       </c>
       <c r="B187" s="38">
         <v>7</v>
       </c>
-      <c r="C187" s="38" t="s">
+      <c r="C187" s="47" t="s">
         <v>724</v>
       </c>
       <c r="D187" s="8"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A188" s="64" t="s">
+      <c r="A188" s="58" t="s">
         <v>358</v>
       </c>
       <c r="B188" s="38">
         <v>8</v>
       </c>
-      <c r="C188" s="38" t="s">
+      <c r="C188" s="47" t="s">
         <v>725</v>
       </c>
       <c r="D188" s="8"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A189" s="64" t="s">
+      <c r="A189" s="58" t="s">
         <v>358</v>
       </c>
       <c r="B189" s="38">
         <v>9</v>
       </c>
-      <c r="C189" s="38" t="s">
+      <c r="C189" s="47" t="s">
         <v>726</v>
       </c>
       <c r="D189" s="8"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A190" s="64" t="s">
+      <c r="A190" s="58" t="s">
         <v>358</v>
       </c>
       <c r="B190" s="38">
         <v>98</v>
       </c>
-      <c r="C190" s="38" t="s">
+      <c r="C190" s="47" t="s">
         <v>726</v>
       </c>
       <c r="D190" s="8"/>
     </row>
     <row r="191" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="65" t="s">
+      <c r="A191" s="59" t="s">
         <v>358</v>
       </c>
       <c r="B191" s="39">
         <v>99</v>
       </c>
-      <c r="C191" s="39" t="s">
+      <c r="C191" s="50" t="s">
         <v>726</v>
       </c>
       <c r="D191" s="9"/>
